--- a/Multilingual Cloze Tests/Distances/Surprisal/NorthWindandSun_Surprisal_Phonetic.xlsx
+++ b/Multilingual Cloze Tests/Distances/Surprisal/NorthWindandSun_Surprisal_Phonetic.xlsx
@@ -665,64 +665,64 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>48.16501901251049</v>
+        <v>47.37010251426648</v>
       </c>
       <c r="D2" t="n">
-        <v>4.013751584375874</v>
+        <v>3.947508542855539</v>
       </c>
       <c r="E2" t="n">
-        <v>52.47541392287573</v>
+        <v>53.96384292503652</v>
       </c>
       <c r="F2" t="n">
-        <v>4.372951160239644</v>
+        <v>4.49698691041971</v>
       </c>
       <c r="G2" t="n">
-        <v>74.74070017204014</v>
+        <v>76.12424823546847</v>
       </c>
       <c r="H2" t="n">
-        <v>3.933721061686322</v>
+        <v>4.006539380814131</v>
       </c>
       <c r="I2" t="n">
-        <v>75.71570657946887</v>
+        <v>75.1425612329195</v>
       </c>
       <c r="J2" t="n">
-        <v>3.785785328973443</v>
+        <v>3.757128061645976</v>
       </c>
       <c r="K2" t="n">
-        <v>40.79648827625847</v>
+        <v>40.07033515261473</v>
       </c>
       <c r="L2" t="n">
-        <v>4.532943141806497</v>
+        <v>4.452259461401637</v>
       </c>
       <c r="M2" t="n">
-        <v>46.13159444802749</v>
+        <v>47.28441169926796</v>
       </c>
       <c r="N2" t="n">
-        <v>3.844299537335624</v>
+        <v>3.940367641605664</v>
       </c>
       <c r="O2" t="n">
-        <v>54.95379916595989</v>
+        <v>52.98323833496099</v>
       </c>
       <c r="P2" t="n">
-        <v>4.227215320458453</v>
+        <v>4.075633718073923</v>
       </c>
       <c r="Q2" t="n">
-        <v>56.13981736816301</v>
+        <v>56.13410572779067</v>
       </c>
       <c r="R2" t="n">
-        <v>4.101523876410837</v>
+        <v>4.096631959545226</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U2" t="n">
         <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="W2" t="n">
         <v>3</v>
@@ -749,28 +749,28 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="AE2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG2" t="n">
         <v>3</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="AI2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK2" t="n">
         <v>4</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AM2" t="n">
         <v>6</v>
@@ -785,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS2" t="n">
         <v>5</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -809,112 +809,112 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>44.98104716643068</v>
+        <v>41.93053338402287</v>
       </c>
       <c r="D3" t="n">
-        <v>3.748420597202556</v>
+        <v>3.49421111533524</v>
       </c>
       <c r="E3" t="n">
-        <v>61.66278639363799</v>
+        <v>59.74227459112693</v>
       </c>
       <c r="F3" t="n">
-        <v>4.404484742402714</v>
+        <v>4.267305327937637</v>
       </c>
       <c r="G3" t="n">
-        <v>77.96611463349191</v>
+        <v>81.08947729051728</v>
       </c>
       <c r="H3" t="n">
-        <v>4.331450812971774</v>
+        <v>4.504970960584294</v>
       </c>
       <c r="I3" t="n">
-        <v>68.90259973823952</v>
+        <v>67.45077081582413</v>
       </c>
       <c r="J3" t="n">
-        <v>3.62645261780208</v>
+        <v>3.550040569253901</v>
       </c>
       <c r="K3" t="n">
-        <v>49.78176922031038</v>
+        <v>46.69696962807806</v>
       </c>
       <c r="L3" t="n">
-        <v>4.978176922031037</v>
+        <v>4.669696962807807</v>
       </c>
       <c r="M3" t="n">
-        <v>74.62209618020076</v>
+        <v>74.83066653514973</v>
       </c>
       <c r="N3" t="n">
-        <v>4.389535069423574</v>
+        <v>4.401803913832337</v>
       </c>
       <c r="O3" t="n">
-        <v>50.63192114696403</v>
+        <v>50.70496368340088</v>
       </c>
       <c r="P3" t="n">
-        <v>3.89476316515108</v>
+        <v>3.900381821800067</v>
       </c>
       <c r="Q3" t="n">
-        <v>61.22119063989646</v>
+        <v>60.34937941830284</v>
       </c>
       <c r="R3" t="n">
-        <v>4.196183418140688</v>
+        <v>4.112630095935898</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
         <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="W3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="n">
         <v>5</v>
       </c>
       <c r="Z3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL3" t="n">
         <v>0.25</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
       </c>
       <c r="AM3" t="n">
         <v>4</v>
@@ -953,64 +953,64 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>38.391942648459</v>
+        <v>36.48569914398949</v>
       </c>
       <c r="D4" t="n">
-        <v>3.490176604405363</v>
+        <v>3.31688174036268</v>
       </c>
       <c r="E4" t="n">
-        <v>55.77860019473568</v>
+        <v>57.24021756844341</v>
       </c>
       <c r="F4" t="n">
-        <v>4.290661553441207</v>
+        <v>4.403093659111031</v>
       </c>
       <c r="G4" t="n">
-        <v>89.92391475864318</v>
+        <v>91.45337901027931</v>
       </c>
       <c r="H4" t="n">
-        <v>4.496195737932159</v>
+        <v>4.572668950513965</v>
       </c>
       <c r="I4" t="n">
-        <v>88.1863796446833</v>
+        <v>87.95487151990173</v>
       </c>
       <c r="J4" t="n">
-        <v>4.199351411651586</v>
+        <v>4.188327215233417</v>
       </c>
       <c r="K4" t="n">
-        <v>46.25075891442807</v>
+        <v>46.56026595849193</v>
       </c>
       <c r="L4" t="n">
-        <v>5.138973212714229</v>
+        <v>5.17336288427688</v>
       </c>
       <c r="M4" t="n">
-        <v>60.33766829827468</v>
+        <v>62.57018967616087</v>
       </c>
       <c r="N4" t="n">
-        <v>4.641359099867283</v>
+        <v>4.813091513550835</v>
       </c>
       <c r="O4" t="n">
-        <v>52.28787573611756</v>
+        <v>51.17471277449087</v>
       </c>
       <c r="P4" t="n">
-        <v>4.357322978009796</v>
+        <v>4.264559397874239</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.59387717076307</v>
+        <v>61.91990509310823</v>
       </c>
       <c r="R4" t="n">
-        <v>4.373434371145946</v>
+        <v>4.390283622989006</v>
       </c>
       <c r="S4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W4" t="n">
         <v>3</v>
@@ -1037,28 +1037,28 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG4" t="n">
         <v>5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK4" t="n">
         <v>6</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AM4" t="n">
         <v>3</v>
@@ -1073,16 +1073,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS4" t="n">
         <v>5</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -1097,64 +1097,64 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>43.71978702611739</v>
+        <v>43.1562749571986</v>
       </c>
       <c r="D5" t="n">
-        <v>3.9745260932834</v>
+        <v>3.923297723381692</v>
       </c>
       <c r="E5" t="n">
-        <v>50.74231621372854</v>
+        <v>53.85360517228946</v>
       </c>
       <c r="F5" t="n">
-        <v>4.612937837611687</v>
+        <v>4.895782288389951</v>
       </c>
       <c r="G5" t="n">
-        <v>98.06197549620764</v>
+        <v>99.40819091385588</v>
       </c>
       <c r="H5" t="n">
-        <v>4.669617880771792</v>
+        <v>4.733723376850279</v>
       </c>
       <c r="I5" t="n">
-        <v>80.91399471153491</v>
+        <v>81.80566993952029</v>
       </c>
       <c r="J5" t="n">
-        <v>4.045699735576745</v>
+        <v>4.090283496976014</v>
       </c>
       <c r="K5" t="n">
-        <v>56.28017923651465</v>
+        <v>58.65575887968385</v>
       </c>
       <c r="L5" t="n">
-        <v>5.116379930592241</v>
+        <v>5.332341716334896</v>
       </c>
       <c r="M5" t="n">
-        <v>78.82134396642179</v>
+        <v>81.92474328969473</v>
       </c>
       <c r="N5" t="n">
-        <v>4.636549645083634</v>
+        <v>4.819102546452632</v>
       </c>
       <c r="O5" t="n">
-        <v>47.43069869146305</v>
+        <v>47.63162392924989</v>
       </c>
       <c r="P5" t="n">
-        <v>4.311881699223914</v>
+        <v>4.330147629931808</v>
       </c>
       <c r="Q5" t="n">
-        <v>65.13861362028399</v>
+        <v>66.6336952973561</v>
       </c>
       <c r="R5" t="n">
-        <v>4.481084688877631</v>
+        <v>4.589239825473896</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
         <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="W5" t="n">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="AE5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG5" t="n">
         <v>2</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK5" t="n">
         <v>7</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AM5" t="n">
         <v>2</v>
@@ -1217,16 +1217,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AQ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS5" t="n">
         <v>5</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -1241,100 +1241,100 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49.19566396916345</v>
+        <v>43.89935897200824</v>
       </c>
       <c r="D6" t="n">
-        <v>4.472333088105769</v>
+        <v>3.990850815637112</v>
       </c>
       <c r="E6" t="n">
-        <v>48.1550169739057</v>
+        <v>50.4470946834325</v>
       </c>
       <c r="F6" t="n">
-        <v>4.37772881580961</v>
+        <v>4.586099516675683</v>
       </c>
       <c r="G6" t="n">
-        <v>103.1212700778717</v>
+        <v>104.4556855272022</v>
       </c>
       <c r="H6" t="n">
-        <v>4.91053667037484</v>
+        <v>4.974080263200108</v>
       </c>
       <c r="I6" t="n">
-        <v>96.90205720715821</v>
+        <v>89.18114216834141</v>
       </c>
       <c r="J6" t="n">
-        <v>4.614383676531343</v>
+        <v>4.246721055635305</v>
       </c>
       <c r="K6" t="n">
-        <v>56.36205767101469</v>
+        <v>57.36438618650906</v>
       </c>
       <c r="L6" t="n">
-        <v>5.1238234246377</v>
+        <v>5.214944198773551</v>
       </c>
       <c r="M6" t="n">
-        <v>78.101278589694</v>
+        <v>71.35017435118554</v>
       </c>
       <c r="N6" t="n">
-        <v>4.594192858217295</v>
+        <v>4.197069079481502</v>
       </c>
       <c r="O6" t="n">
-        <v>62.93833159543828</v>
+        <v>62.71144068235685</v>
       </c>
       <c r="P6" t="n">
-        <v>4.841410122726022</v>
+        <v>4.823956975565912</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.68223944060657</v>
+        <v>68.48704036729083</v>
       </c>
       <c r="R6" t="n">
-        <v>4.704915522343225</v>
+        <v>4.576245986424167</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U6" t="n">
         <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y6" t="n">
         <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="AA6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC6" t="n">
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.2</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AE6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG6" t="n">
         <v>5</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="AI6" t="n">
         <v>1</v>
@@ -1349,16 +1349,16 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AM6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
         <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AQ6" t="n">
         <v>2</v>
@@ -1385,64 +1385,64 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49.67912173423463</v>
+        <v>49.74218596181077</v>
       </c>
       <c r="D7" t="n">
-        <v>4.13992681118622</v>
+        <v>4.145182163484232</v>
       </c>
       <c r="E7" t="n">
-        <v>59.52831490739381</v>
+        <v>60.95548108862545</v>
       </c>
       <c r="F7" t="n">
-        <v>4.252022493385272</v>
+        <v>4.353962934901817</v>
       </c>
       <c r="G7" t="n">
-        <v>107.0312011503033</v>
+        <v>108.4443205597912</v>
       </c>
       <c r="H7" t="n">
-        <v>4.653530484795796</v>
+        <v>4.714970459121358</v>
       </c>
       <c r="I7" t="n">
-        <v>114.8209145566464</v>
+        <v>115.6256890427413</v>
       </c>
       <c r="J7" t="n">
-        <v>4.592836582265858</v>
+        <v>4.625027561709651</v>
       </c>
       <c r="K7" t="n">
-        <v>44.82315443597577</v>
+        <v>44.97175300761052</v>
       </c>
       <c r="L7" t="n">
-        <v>4.482315443597576</v>
+        <v>4.497175300761052</v>
       </c>
       <c r="M7" t="n">
-        <v>54.72786264290882</v>
+        <v>55.81255318250414</v>
       </c>
       <c r="N7" t="n">
-        <v>3.909133045922058</v>
+        <v>3.986610941607439</v>
       </c>
       <c r="O7" t="n">
-        <v>58.68698623646533</v>
+        <v>58.62928111508088</v>
       </c>
       <c r="P7" t="n">
-        <v>4.191927588318952</v>
+        <v>4.187805793934349</v>
       </c>
       <c r="Q7" t="n">
-        <v>69.89965080913259</v>
+        <v>70.5973234225949</v>
       </c>
       <c r="R7" t="n">
-        <v>4.317384635638819</v>
+        <v>4.358676450788557</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U7" t="n">
         <v>4</v>
       </c>
       <c r="V7" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="W7" t="n">
         <v>4</v>
@@ -1469,28 +1469,28 @@
         <v>0.2631578947368421</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG7" t="n">
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="AI7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>1</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>2</v>
-      </c>
       <c r="AK7" t="n">
         <v>7</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AM7" t="n">
         <v>6</v>
@@ -1505,16 +1505,16 @@
         <v>0.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS7" t="n">
         <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -1529,64 +1529,64 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>58.05119287535547</v>
+        <v>57.37379043044724</v>
       </c>
       <c r="D8" t="n">
-        <v>4.146513776811104</v>
+        <v>4.098127887889088</v>
       </c>
       <c r="E8" t="n">
-        <v>59.59798873272494</v>
+        <v>61.50465580167689</v>
       </c>
       <c r="F8" t="n">
-        <v>4.584460671748073</v>
+        <v>4.731127369359761</v>
       </c>
       <c r="G8" t="n">
-        <v>99.06887320971695</v>
+        <v>101.8427932971477</v>
       </c>
       <c r="H8" t="n">
-        <v>4.953443660485848</v>
+        <v>5.092139664857383</v>
       </c>
       <c r="I8" t="n">
-        <v>110.1938510711008</v>
+        <v>111.0866900684043</v>
       </c>
       <c r="J8" t="n">
-        <v>4.591410461295867</v>
+        <v>4.62861208618351</v>
       </c>
       <c r="K8" t="n">
-        <v>46.68200020798819</v>
+        <v>47.39855749934532</v>
       </c>
       <c r="L8" t="n">
-        <v>4.668200020798818</v>
+        <v>4.739855749934532</v>
       </c>
       <c r="M8" t="n">
-        <v>55.82822098467956</v>
+        <v>57.03041063568952</v>
       </c>
       <c r="N8" t="n">
-        <v>3.987730070334254</v>
+        <v>4.073600759692108</v>
       </c>
       <c r="O8" t="n">
-        <v>53.39640180586694</v>
+        <v>53.8129140079247</v>
       </c>
       <c r="P8" t="n">
-        <v>4.107415523528226</v>
+        <v>4.139454923686515</v>
       </c>
       <c r="Q8" t="n">
-        <v>68.97407555534755</v>
+        <v>70.00711596294794</v>
       </c>
       <c r="R8" t="n">
-        <v>4.434167740714599</v>
+        <v>4.500416920228986</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
         <v>6</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="W8" t="n">
         <v>3</v>
@@ -1613,28 +1613,28 @@
         <v>0.0625</v>
       </c>
       <c r="AE8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG8" t="n">
         <v>8</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM8" t="n">
         <v>6</v>
@@ -1649,16 +1649,16 @@
         <v>0.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS8" t="n">
         <v>5</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -1673,64 +1673,64 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>41.02721930902434</v>
+        <v>41.39023449632914</v>
       </c>
       <c r="D9" t="n">
-        <v>3.729747209911304</v>
+        <v>3.762748590575376</v>
       </c>
       <c r="E9" t="n">
-        <v>63.6094084947818</v>
+        <v>63.93422480341367</v>
       </c>
       <c r="F9" t="n">
-        <v>4.240627232985454</v>
+        <v>4.262281653560912</v>
       </c>
       <c r="G9" t="n">
-        <v>92.75172669841062</v>
+        <v>93.72944078745778</v>
       </c>
       <c r="H9" t="n">
-        <v>4.215987577200483</v>
+        <v>4.260429126702626</v>
       </c>
       <c r="I9" t="n">
-        <v>87.16591073879468</v>
+        <v>87.05678434983085</v>
       </c>
       <c r="J9" t="n">
-        <v>3.962086851763394</v>
+        <v>3.957126561355948</v>
       </c>
       <c r="K9" t="n">
-        <v>41.47063390069419</v>
+        <v>41.3176382879742</v>
       </c>
       <c r="L9" t="n">
-        <v>4.607848211188244</v>
+        <v>4.5908486986638</v>
       </c>
       <c r="M9" t="n">
-        <v>59.93415513794083</v>
+        <v>60.98677406627386</v>
       </c>
       <c r="N9" t="n">
-        <v>3.995610342529389</v>
+        <v>4.065784937751591</v>
       </c>
       <c r="O9" t="n">
-        <v>45.44312548244578</v>
+        <v>45.68229794739673</v>
       </c>
       <c r="P9" t="n">
-        <v>3.495625037111214</v>
+        <v>3.514022919030518</v>
       </c>
       <c r="Q9" t="n">
-        <v>61.62888282315603</v>
+        <v>62.0139135340966</v>
       </c>
       <c r="R9" t="n">
-        <v>4.035361780384211</v>
+        <v>4.059034641091539</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
         <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="W9" t="n">
         <v>2</v>
@@ -1757,28 +1757,28 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="AE9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
         <v>5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
         <v>4</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM9" t="n">
         <v>4</v>
@@ -1793,16 +1793,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS9" t="n">
         <v>4</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="10">
@@ -1817,64 +1817,64 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>47.61653887753603</v>
+        <v>47.12695025145921</v>
       </c>
       <c r="D10" t="n">
-        <v>3.968044906461336</v>
+        <v>3.927245854288267</v>
       </c>
       <c r="E10" t="n">
-        <v>49.39975886199505</v>
+        <v>50.14432365130348</v>
       </c>
       <c r="F10" t="n">
-        <v>4.11664657183292</v>
+        <v>4.178693637608623</v>
       </c>
       <c r="G10" t="n">
-        <v>73.45891706246535</v>
+        <v>74.58619371066935</v>
       </c>
       <c r="H10" t="n">
-        <v>3.866258792761334</v>
+        <v>3.925589142666808</v>
       </c>
       <c r="I10" t="n">
-        <v>73.86097251999479</v>
+        <v>73.74031965596527</v>
       </c>
       <c r="J10" t="n">
-        <v>3.693048625999739</v>
+        <v>3.687015982798263</v>
       </c>
       <c r="K10" t="n">
-        <v>36.75168821725542</v>
+        <v>35.40731921537832</v>
       </c>
       <c r="L10" t="n">
-        <v>4.08352091302838</v>
+        <v>3.93414657948648</v>
       </c>
       <c r="M10" t="n">
-        <v>43.69224531841942</v>
+        <v>44.30962051031666</v>
       </c>
       <c r="N10" t="n">
-        <v>3.641020443201618</v>
+        <v>3.692468375859721</v>
       </c>
       <c r="O10" t="n">
-        <v>54.72770391701306</v>
+        <v>53.31670498298514</v>
       </c>
       <c r="P10" t="n">
-        <v>4.209823378231774</v>
+        <v>4.101284998691165</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.21540353923987</v>
+        <v>54.09020456829678</v>
       </c>
       <c r="R10" t="n">
-        <v>3.939766233073871</v>
+        <v>3.920920653057047</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
         <v>4</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="W10" t="n">
         <v>3</v>
@@ -1901,28 +1901,28 @@
         <v>0.4375</v>
       </c>
       <c r="AE10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG10" t="n">
         <v>3</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="AI10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK10" t="n">
         <v>4</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AM10" t="n">
         <v>6</v>
@@ -1937,16 +1937,16 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="AQ10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS10" t="n">
         <v>5</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="11">
@@ -1961,64 +1961,64 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>43.73079139904355</v>
+        <v>44.09155688100377</v>
       </c>
       <c r="D11" t="n">
-        <v>3.363907030695658</v>
+        <v>3.391658221615674</v>
       </c>
       <c r="E11" t="n">
-        <v>52.53102069993763</v>
+        <v>52.91480901186877</v>
       </c>
       <c r="F11" t="n">
-        <v>4.040847746149048</v>
+        <v>4.070369923989904</v>
       </c>
       <c r="G11" t="n">
-        <v>65.50047104118781</v>
+        <v>66.07292781451964</v>
       </c>
       <c r="H11" t="n">
-        <v>3.852968884775753</v>
+        <v>3.886642812618802</v>
       </c>
       <c r="I11" t="n">
-        <v>56.02213102356615</v>
+        <v>55.50172390903733</v>
       </c>
       <c r="J11" t="n">
-        <v>2.94853321176664</v>
+        <v>2.921143363633544</v>
       </c>
       <c r="K11" t="n">
-        <v>24.86007961402273</v>
+        <v>24.66916045631813</v>
       </c>
       <c r="L11" t="n">
-        <v>4.143346602337122</v>
+        <v>4.111526742719688</v>
       </c>
       <c r="M11" t="n">
-        <v>67.44213200450737</v>
+        <v>69.41747538450088</v>
       </c>
       <c r="N11" t="n">
-        <v>4.215133250281711</v>
+        <v>4.338592211531305</v>
       </c>
       <c r="O11" t="n">
-        <v>33.49199028403689</v>
+        <v>33.4573431342013</v>
       </c>
       <c r="P11" t="n">
-        <v>2.790999190336407</v>
+        <v>2.788111927850108</v>
       </c>
       <c r="Q11" t="n">
-        <v>49.08265943804316</v>
+        <v>49.44642808449283</v>
       </c>
       <c r="R11" t="n">
-        <v>3.622247988048906</v>
+        <v>3.644006457708432</v>
       </c>
       <c r="S11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
         <v>3</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="W11" t="n">
         <v>3</v>
@@ -2045,28 +2045,28 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG11" t="n">
         <v>3</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="AI11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>1</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>2</v>
-      </c>
       <c r="AK11" t="n">
         <v>3</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AM11" t="n">
         <v>4</v>
@@ -2081,16 +2081,16 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12">
@@ -2105,64 +2105,64 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>47.47431336996527</v>
+        <v>47.7847297411782</v>
       </c>
       <c r="D12" t="n">
-        <v>3.651870259228097</v>
+        <v>3.675748441629093</v>
       </c>
       <c r="E12" t="n">
-        <v>47.70941760013846</v>
+        <v>48.84812802483249</v>
       </c>
       <c r="F12" t="n">
-        <v>4.337219781830769</v>
+        <v>4.440738911348408</v>
       </c>
       <c r="G12" t="n">
-        <v>93.05296838529621</v>
+        <v>95.16375335091556</v>
       </c>
       <c r="H12" t="n">
-        <v>4.431093732633153</v>
+        <v>4.53160730242455</v>
       </c>
       <c r="I12" t="n">
-        <v>80.43855689382954</v>
+        <v>81.65707751883156</v>
       </c>
       <c r="J12" t="n">
-        <v>3.83040747113474</v>
+        <v>3.888432262801502</v>
       </c>
       <c r="K12" t="n">
-        <v>19.51302015746765</v>
+        <v>19.41005473329647</v>
       </c>
       <c r="L12" t="n">
-        <v>3.90260403149353</v>
+        <v>3.882010946659294</v>
       </c>
       <c r="M12" t="n">
-        <v>45.58787160130089</v>
+        <v>46.60080140625811</v>
       </c>
       <c r="N12" t="n">
-        <v>4.144351963754626</v>
+        <v>4.236436491478011</v>
       </c>
       <c r="O12" t="n">
-        <v>68.47385570048755</v>
+        <v>69.71729830692816</v>
       </c>
       <c r="P12" t="n">
-        <v>4.564923713365837</v>
+        <v>4.647819887128544</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.46428624406936</v>
+        <v>58.45454901174865</v>
       </c>
       <c r="R12" t="n">
-        <v>4.123210136205822</v>
+        <v>4.186113463352772</v>
       </c>
       <c r="S12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
         <v>4</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W12" t="n">
         <v>3</v>
@@ -2189,28 +2189,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG12" t="n">
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="AI12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>1</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>2</v>
-      </c>
       <c r="AK12" t="n">
         <v>2</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
@@ -2225,16 +2225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS12" t="n">
         <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13">
@@ -2393,64 +2393,64 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>58.05089419835702</v>
+        <v>54.95570114907932</v>
       </c>
       <c r="D14" t="n">
-        <v>4.465453399873617</v>
+        <v>4.227361626852255</v>
       </c>
       <c r="E14" t="n">
-        <v>44.3059688402094</v>
+        <v>41.09402305709926</v>
       </c>
       <c r="F14" t="n">
-        <v>4.43059688402094</v>
+        <v>4.109402305709926</v>
       </c>
       <c r="G14" t="n">
-        <v>108.6384880969079</v>
+        <v>100.9581422967628</v>
       </c>
       <c r="H14" t="n">
-        <v>4.723412525952519</v>
+        <v>4.389484447685339</v>
       </c>
       <c r="I14" t="n">
-        <v>94.74300992625804</v>
+        <v>91.13697260084984</v>
       </c>
       <c r="J14" t="n">
-        <v>4.511571901250383</v>
+        <v>4.339855838135707</v>
       </c>
       <c r="K14" t="n">
-        <v>35.86772131165837</v>
+        <v>35.18583115324481</v>
       </c>
       <c r="L14" t="n">
-        <v>5.123960187379767</v>
+        <v>5.026547307606402</v>
       </c>
       <c r="M14" t="n">
-        <v>75.78982970279152</v>
+        <v>73.43628995275357</v>
       </c>
       <c r="N14" t="n">
-        <v>4.736864356424469</v>
+        <v>4.589768122047097</v>
       </c>
       <c r="O14" t="n">
-        <v>75.47790823543666</v>
+        <v>72.40925154683094</v>
       </c>
       <c r="P14" t="n">
-        <v>4.717369264714791</v>
+        <v>4.525578221676933</v>
       </c>
       <c r="Q14" t="n">
-        <v>70.4105457588027</v>
+        <v>67.02517310808865</v>
       </c>
       <c r="R14" t="n">
-        <v>4.672746931373783</v>
+        <v>4.458285409959094</v>
       </c>
       <c r="S14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U14" t="n">
         <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="W14" t="n">
         <v>1</v>
@@ -2465,16 +2465,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AA14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC14" t="n">
         <v>14</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2537,64 +2537,64 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>52.57815685398441</v>
+        <v>50.81388331550877</v>
       </c>
       <c r="D15" t="n">
-        <v>4.044473604152647</v>
+        <v>3.908760255039136</v>
       </c>
       <c r="E15" t="n">
-        <v>44.63592421448772</v>
+        <v>43.9118007466641</v>
       </c>
       <c r="F15" t="n">
-        <v>4.057811292226156</v>
+        <v>3.991981886060373</v>
       </c>
       <c r="G15" t="n">
-        <v>103.803685388127</v>
+        <v>105.4032879075644</v>
       </c>
       <c r="H15" t="n">
-        <v>4.325153557838626</v>
+        <v>4.391803662815183</v>
       </c>
       <c r="I15" t="n">
-        <v>107.0544774295288</v>
+        <v>107.0645902537489</v>
       </c>
       <c r="J15" t="n">
-        <v>4.282179097181155</v>
+        <v>4.282583610149956</v>
       </c>
       <c r="K15" t="n">
-        <v>26.63779500587843</v>
+        <v>25.76501648109295</v>
       </c>
       <c r="L15" t="n">
-        <v>4.439632500979737</v>
+        <v>4.294169413515491</v>
       </c>
       <c r="M15" t="n">
-        <v>43.91464196895858</v>
+        <v>44.40770064262484</v>
       </c>
       <c r="N15" t="n">
-        <v>3.659553497413215</v>
+        <v>3.700641720218736</v>
       </c>
       <c r="O15" t="n">
-        <v>72.20738115464472</v>
+        <v>72.16344727959699</v>
       </c>
       <c r="P15" t="n">
-        <v>4.247493009096749</v>
+        <v>4.244908663505706</v>
       </c>
       <c r="Q15" t="n">
-        <v>64.40458028794424</v>
+        <v>64.21853237525728</v>
       </c>
       <c r="R15" t="n">
-        <v>4.150899508412612</v>
+        <v>4.116407030186369</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U15" t="n">
         <v>4</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="W15" t="n">
         <v>3</v>
@@ -2621,28 +2621,28 @@
         <v>0.3684210526315789</v>
       </c>
       <c r="AE15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG15" t="n">
         <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK15" t="n">
         <v>3</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AM15" t="n">
         <v>4</v>
@@ -2657,16 +2657,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS15" t="n">
         <v>10</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="16">
@@ -2681,76 +2681,76 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>51.9519989116003</v>
+        <v>46.83031165397093</v>
       </c>
       <c r="D16" t="n">
-        <v>3.996307608584639</v>
+        <v>3.602331665690071</v>
       </c>
       <c r="E16" t="n">
-        <v>44.40086400786534</v>
+        <v>42.82521135447159</v>
       </c>
       <c r="F16" t="n">
-        <v>4.440086400786534</v>
+        <v>4.282521135447159</v>
       </c>
       <c r="G16" t="n">
-        <v>104.7682411032175</v>
+        <v>110.224370480029</v>
       </c>
       <c r="H16" t="n">
-        <v>4.988963862057978</v>
+        <v>5.248779546668047</v>
       </c>
       <c r="I16" t="n">
-        <v>114.2028427985908</v>
+        <v>113.8066886420248</v>
       </c>
       <c r="J16" t="n">
-        <v>4.758451783274618</v>
+        <v>4.741945360084367</v>
       </c>
       <c r="K16" t="n">
-        <v>31.83487291502387</v>
+        <v>32.41489070774819</v>
       </c>
       <c r="L16" t="n">
-        <v>4.547838987860553</v>
+        <v>4.630698672535456</v>
       </c>
       <c r="M16" t="n">
-        <v>55.89329987909264</v>
+        <v>55.60796638425924</v>
       </c>
       <c r="N16" t="n">
-        <v>4.299484606084048</v>
+        <v>4.277535875712249</v>
       </c>
       <c r="O16" t="n">
-        <v>71.76302981196336</v>
+        <v>70.48956094162526</v>
       </c>
       <c r="P16" t="n">
-        <v>4.485189363247711</v>
+        <v>4.405597558851579</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.83073563247912</v>
+        <v>67.45700002344699</v>
       </c>
       <c r="R16" t="n">
-        <v>4.50233180169944</v>
+        <v>4.455629973569847</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U16" t="n">
         <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="W16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y16" t="n">
         <v>4</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="AA16" t="n">
         <v>1</v>
@@ -2765,28 +2765,28 @@
         <v>0.0625</v>
       </c>
       <c r="AE16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
         <v>9</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.09523809523809523</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK16" t="n">
         <v>4</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM16" t="n">
         <v>3</v>
@@ -2801,16 +2801,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS16" t="n">
         <v>8</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="17">
@@ -2825,64 +2825,64 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>51.15082305975032</v>
+        <v>49.03095377767915</v>
       </c>
       <c r="D17" t="n">
-        <v>4.262568588312527</v>
+        <v>4.085912814806596</v>
       </c>
       <c r="E17" t="n">
-        <v>51.8847560132839</v>
+        <v>52.41000103355307</v>
       </c>
       <c r="F17" t="n">
-        <v>4.323729667773659</v>
+        <v>4.367500086129422</v>
       </c>
       <c r="G17" t="n">
-        <v>100.8314278221788</v>
+        <v>101.2123976777048</v>
       </c>
       <c r="H17" t="n">
-        <v>4.583246719189944</v>
+        <v>4.600563530804763</v>
       </c>
       <c r="I17" t="n">
-        <v>94.15237437334874</v>
+        <v>92.72071177441029</v>
       </c>
       <c r="J17" t="n">
-        <v>4.279653380606761</v>
+        <v>4.21457780792774</v>
       </c>
       <c r="K17" t="n">
-        <v>22.64026837464412</v>
+        <v>21.23073186401359</v>
       </c>
       <c r="L17" t="n">
-        <v>4.528053674928825</v>
+        <v>4.246146372802718</v>
       </c>
       <c r="M17" t="n">
-        <v>60.23825905438369</v>
+        <v>58.78469550476912</v>
       </c>
       <c r="N17" t="n">
-        <v>4.302732789598835</v>
+        <v>4.198906821769223</v>
       </c>
       <c r="O17" t="n">
-        <v>68.54469131399658</v>
+        <v>68.88403152096116</v>
       </c>
       <c r="P17" t="n">
-        <v>4.284043207124787</v>
+        <v>4.305251970060072</v>
       </c>
       <c r="Q17" t="n">
-        <v>64.20608571594087</v>
+        <v>63.46764616472731</v>
       </c>
       <c r="R17" t="n">
-        <v>4.366289718219334</v>
+        <v>4.288408486328648</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
         <v>5</v>
       </c>
       <c r="V17" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="W17" t="n">
         <v>2</v>
@@ -2909,28 +2909,28 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AE17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG17" t="n">
         <v>6</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK17" t="n">
         <v>0</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM17" t="n">
         <v>3</v>
@@ -2945,16 +2945,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS17" t="n">
         <v>7</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="18">
@@ -2969,112 +2969,112 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>45.85520592591962</v>
+        <v>44.18249770445141</v>
       </c>
       <c r="D18" t="n">
-        <v>3.821267160493302</v>
+        <v>3.681874808704284</v>
       </c>
       <c r="E18" t="n">
-        <v>60.6074218274119</v>
+        <v>59.63045208472833</v>
       </c>
       <c r="F18" t="n">
-        <v>4.329101559100851</v>
+        <v>4.259318006052024</v>
       </c>
       <c r="G18" t="n">
-        <v>74.63264505896811</v>
+        <v>77.61454821178519</v>
       </c>
       <c r="H18" t="n">
-        <v>4.146258058831561</v>
+        <v>4.311919345099177</v>
       </c>
       <c r="I18" t="n">
-        <v>65.30427382996035</v>
+        <v>64.17944416656873</v>
       </c>
       <c r="J18" t="n">
-        <v>3.437067043682123</v>
+        <v>3.377865482450986</v>
       </c>
       <c r="K18" t="n">
-        <v>45.17594820352685</v>
+        <v>41.650579008819</v>
       </c>
       <c r="L18" t="n">
-        <v>4.517594820352684</v>
+        <v>4.165057900881901</v>
       </c>
       <c r="M18" t="n">
-        <v>74.37655084449815</v>
+        <v>74.85652941682237</v>
       </c>
       <c r="N18" t="n">
-        <v>4.37509122614695</v>
+        <v>4.403325259813081</v>
       </c>
       <c r="O18" t="n">
-        <v>50.16079337750791</v>
+        <v>51.40865872142257</v>
       </c>
       <c r="P18" t="n">
-        <v>3.858522567500609</v>
+        <v>3.954512209340197</v>
       </c>
       <c r="Q18" t="n">
-        <v>59.44469129539898</v>
+        <v>59.07467275922823</v>
       </c>
       <c r="R18" t="n">
-        <v>4.069271776586868</v>
+        <v>4.02198185890595</v>
       </c>
       <c r="S18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
         <v>3</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y18" t="n">
         <v>5</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="AA18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC18" t="n">
         <v>7</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.3125</v>
+        <v>0.25</v>
       </c>
       <c r="AE18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AG18" t="n">
         <v>2</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK18" t="n">
         <v>7</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AM18" t="n">
         <v>4</v>
@@ -3113,64 +3113,64 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>45.05078274640568</v>
+        <v>45.90347454797323</v>
       </c>
       <c r="D19" t="n">
-        <v>3.46544482664659</v>
+        <v>3.531036503690248</v>
       </c>
       <c r="E19" t="n">
-        <v>55.3803690989898</v>
+        <v>56.93197384164276</v>
       </c>
       <c r="F19" t="n">
-        <v>4.260028392229985</v>
+        <v>4.379382603203289</v>
       </c>
       <c r="G19" t="n">
-        <v>65.49291660191507</v>
+        <v>66.9154315673982</v>
       </c>
       <c r="H19" t="n">
-        <v>3.852524505995004</v>
+        <v>3.936201856905777</v>
       </c>
       <c r="I19" t="n">
-        <v>54.94166536669047</v>
+        <v>55.11364715234441</v>
       </c>
       <c r="J19" t="n">
-        <v>2.891666598246867</v>
+        <v>2.900718271176022</v>
       </c>
       <c r="K19" t="n">
-        <v>25.61152719422331</v>
+        <v>25.92769895671102</v>
       </c>
       <c r="L19" t="n">
-        <v>4.268587865703886</v>
+        <v>4.321283159451837</v>
       </c>
       <c r="M19" t="n">
-        <v>70.13934700664922</v>
+        <v>72.49634472631973</v>
       </c>
       <c r="N19" t="n">
-        <v>4.383709187915575</v>
+        <v>4.531021545394984</v>
       </c>
       <c r="O19" t="n">
-        <v>33.36703326552567</v>
+        <v>33.66771648564367</v>
       </c>
       <c r="P19" t="n">
-        <v>2.780586105460473</v>
+        <v>2.805643040470305</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.99766304005703</v>
+        <v>50.99375532543328</v>
       </c>
       <c r="R19" t="n">
-        <v>3.70036392602834</v>
+        <v>3.772183854327495</v>
       </c>
       <c r="S19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U19" t="n">
         <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="W19" t="n">
         <v>3</v>
@@ -3197,28 +3197,28 @@
         <v>0.4705882352941176</v>
       </c>
       <c r="AE19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG19" t="n">
         <v>3</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AI19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>1</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>2</v>
-      </c>
       <c r="AK19" t="n">
         <v>3</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AM19" t="n">
         <v>4</v>
@@ -3233,16 +3233,16 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
         <v>0</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20">
@@ -3257,64 +3257,64 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>48.11785738767073</v>
+        <v>48.34206318986359</v>
       </c>
       <c r="D20" t="n">
-        <v>3.436989813405053</v>
+        <v>3.453004513561686</v>
       </c>
       <c r="E20" t="n">
-        <v>69.27406396009148</v>
+        <v>71.31801704860958</v>
       </c>
       <c r="F20" t="n">
-        <v>4.618270930672765</v>
+        <v>4.754534469907305</v>
       </c>
       <c r="G20" t="n">
-        <v>86.84431790459385</v>
+        <v>88.5205130859751</v>
       </c>
       <c r="H20" t="n">
-        <v>4.342215895229693</v>
+        <v>4.426025654298755</v>
       </c>
       <c r="I20" t="n">
-        <v>73.99496882150649</v>
+        <v>74.28054591315865</v>
       </c>
       <c r="J20" t="n">
-        <v>3.699748441075324</v>
+        <v>3.714027295657933</v>
       </c>
       <c r="K20" t="n">
-        <v>15.57025826965015</v>
+        <v>15.36581973079775</v>
       </c>
       <c r="L20" t="n">
-        <v>3.892564567412538</v>
+        <v>3.841454932699438</v>
       </c>
       <c r="M20" t="n">
-        <v>66.61252568616523</v>
+        <v>67.33239433326683</v>
       </c>
       <c r="N20" t="n">
-        <v>4.440835045744349</v>
+        <v>4.488826288884455</v>
       </c>
       <c r="O20" t="n">
-        <v>64.81937952850548</v>
+        <v>65.46632881354114</v>
       </c>
       <c r="P20" t="n">
-        <v>4.321291968567031</v>
+        <v>4.364421920902742</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.74762450831192</v>
+        <v>61.51795458788752</v>
       </c>
       <c r="R20" t="n">
-        <v>4.107416666015251</v>
+        <v>4.148899296558902</v>
       </c>
       <c r="S20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>5</v>
       </c>
       <c r="V20" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="W20" t="n">
         <v>2</v>
@@ -3341,28 +3341,28 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="AE20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG20" t="n">
         <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="AI20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>1</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>2</v>
       </c>
       <c r="AK20" t="n">
         <v>1</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="AM20" t="n">
         <v>2</v>
@@ -3377,16 +3377,16 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="AQ20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS20" t="n">
         <v>8</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21">
@@ -3401,52 +3401,52 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>55.20201030276485</v>
+        <v>55.55301034828041</v>
       </c>
       <c r="D21" t="n">
-        <v>3.943000735911776</v>
+        <v>3.968072167734315</v>
       </c>
       <c r="E21" t="n">
-        <v>58.25256733021463</v>
+        <v>58.52606621265239</v>
       </c>
       <c r="F21" t="n">
-        <v>4.85438061085122</v>
+        <v>4.877172184387699</v>
       </c>
       <c r="G21" t="n">
-        <v>94.61829945504721</v>
+        <v>95.15319881292628</v>
       </c>
       <c r="H21" t="n">
-        <v>4.730914972752362</v>
+        <v>4.757659940646313</v>
       </c>
       <c r="I21" t="n">
-        <v>82.05103167655861</v>
+        <v>82.60993798096595</v>
       </c>
       <c r="J21" t="n">
-        <v>4.102551583827932</v>
+        <v>4.130496899048298</v>
       </c>
       <c r="K21" t="n">
-        <v>34.57149039951418</v>
+        <v>34.72609603638786</v>
       </c>
       <c r="L21" t="n">
-        <v>4.93878434278774</v>
+        <v>4.960870862341123</v>
       </c>
       <c r="M21" t="n">
-        <v>93.08312941132928</v>
+        <v>93.31166520732221</v>
       </c>
       <c r="N21" t="n">
-        <v>4.654156470566464</v>
+        <v>4.665583260366111</v>
       </c>
       <c r="O21" t="n">
-        <v>56.69900496943001</v>
+        <v>56.99768287543763</v>
       </c>
       <c r="P21" t="n">
-        <v>4.361461920725385</v>
+        <v>4.384437144264433</v>
       </c>
       <c r="Q21" t="n">
-        <v>67.78250479212268</v>
+        <v>68.12537963913896</v>
       </c>
       <c r="R21" t="n">
-        <v>4.512178662488982</v>
+        <v>4.534898922684041</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3545,52 +3545,52 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>61.31243975338666</v>
+        <v>57.25205917671322</v>
       </c>
       <c r="D22" t="n">
-        <v>4.379459982384762</v>
+        <v>4.089432798336659</v>
       </c>
       <c r="E22" t="n">
-        <v>60.92474890150394</v>
+        <v>57.34166873667769</v>
       </c>
       <c r="F22" t="n">
-        <v>5.077062408458662</v>
+        <v>4.778472394723141</v>
       </c>
       <c r="G22" t="n">
-        <v>93.24053498760026</v>
+        <v>90.18547986699471</v>
       </c>
       <c r="H22" t="n">
-        <v>4.662026749380012</v>
+        <v>4.509273993349734</v>
       </c>
       <c r="I22" t="n">
-        <v>95.44515367038092</v>
+        <v>89.86790733632648</v>
       </c>
       <c r="J22" t="n">
-        <v>4.545007317637186</v>
+        <v>4.27942415887269</v>
       </c>
       <c r="K22" t="n">
-        <v>37.01086933658797</v>
+        <v>36.84118494396832</v>
       </c>
       <c r="L22" t="n">
-        <v>5.287267048083996</v>
+        <v>5.263026420566902</v>
       </c>
       <c r="M22" t="n">
-        <v>91.05866821687364</v>
+        <v>87.21000745549533</v>
       </c>
       <c r="N22" t="n">
-        <v>4.552933410843682</v>
+        <v>4.360500372774766</v>
       </c>
       <c r="O22" t="n">
-        <v>74.08574965830873</v>
+        <v>71.95839855142263</v>
       </c>
       <c r="P22" t="n">
-        <v>4.630359353644295</v>
+        <v>4.497399909463915</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.29688064637745</v>
+        <v>70.09381515251405</v>
       </c>
       <c r="R22" t="n">
-        <v>4.733445181490371</v>
+        <v>4.53964714972683</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3617,16 +3617,16 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC22" t="n">
         <v>12</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.2</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AE22" t="n">
         <v>6</v>
@@ -3653,16 +3653,16 @@
         <v>0</v>
       </c>
       <c r="AM22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO22" t="n">
         <v>12</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AQ22" t="n">
         <v>3</v>
@@ -3689,64 +3689,64 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>66.81123808410634</v>
+        <v>68.05821985914109</v>
       </c>
       <c r="D23" t="n">
-        <v>4.454082538940422</v>
+        <v>4.537214657276073</v>
       </c>
       <c r="E23" t="n">
-        <v>70.38517407206007</v>
+        <v>73.71541026384601</v>
       </c>
       <c r="F23" t="n">
-        <v>5.027512433718576</v>
+        <v>5.265386447417573</v>
       </c>
       <c r="G23" t="n">
-        <v>100.7641887710128</v>
+        <v>104.4246879784397</v>
       </c>
       <c r="H23" t="n">
-        <v>4.79829470338156</v>
+        <v>4.972604189449508</v>
       </c>
       <c r="I23" t="n">
-        <v>107.305371280139</v>
+        <v>109.3665231672296</v>
       </c>
       <c r="J23" t="n">
-        <v>4.665450925223436</v>
+        <v>4.755066224662155</v>
       </c>
       <c r="K23" t="n">
-        <v>22.99853549162504</v>
+        <v>22.32623324757699</v>
       </c>
       <c r="L23" t="n">
-        <v>4.599707098325007</v>
+        <v>4.465246649515398</v>
       </c>
       <c r="M23" t="n">
-        <v>79.66566901352942</v>
+        <v>83.85929699419277</v>
       </c>
       <c r="N23" t="n">
-        <v>4.425870500751635</v>
+        <v>4.65884983301071</v>
       </c>
       <c r="O23" t="n">
-        <v>80.01210895819437</v>
+        <v>81.75468596322266</v>
       </c>
       <c r="P23" t="n">
-        <v>4.70659464459967</v>
+        <v>4.809099174307215</v>
       </c>
       <c r="Q23" t="n">
-        <v>75.420326524381</v>
+        <v>77.64357963909268</v>
       </c>
       <c r="R23" t="n">
-        <v>4.668216120705758</v>
+        <v>4.780495310805519</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U23" t="n">
         <v>7</v>
       </c>
       <c r="V23" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="W23" t="n">
         <v>1</v>
@@ -3773,28 +3773,28 @@
         <v>0.1578947368421053</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG23" t="n">
         <v>10</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK23" t="n">
         <v>2</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AM23" t="n">
         <v>3</v>
@@ -3809,16 +3809,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS23" t="n">
         <v>10</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24">
@@ -3833,52 +3833,52 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>53.82127082943598</v>
+        <v>54.57013656334902</v>
       </c>
       <c r="D24" t="n">
-        <v>3.844376487816855</v>
+        <v>3.897866897382073</v>
       </c>
       <c r="E24" t="n">
-        <v>67.12275036506642</v>
+        <v>70.96044913751578</v>
       </c>
       <c r="F24" t="n">
-        <v>4.794482168933317</v>
+        <v>5.068603509822555</v>
       </c>
       <c r="G24" t="n">
-        <v>89.5115162875758</v>
+        <v>94.11608283142688</v>
       </c>
       <c r="H24" t="n">
-        <v>4.972862015976434</v>
+        <v>5.228671268412604</v>
       </c>
       <c r="I24" t="n">
-        <v>100.4999748019401</v>
+        <v>103.2259934158532</v>
       </c>
       <c r="J24" t="n">
-        <v>4.369564121823483</v>
+        <v>4.488086670254485</v>
       </c>
       <c r="K24" t="n">
-        <v>26.24064055229274</v>
+        <v>25.5216838917222</v>
       </c>
       <c r="L24" t="n">
-        <v>4.373440092048791</v>
+        <v>4.2536139819537</v>
       </c>
       <c r="M24" t="n">
-        <v>78.143792544094</v>
+        <v>82.36499749917054</v>
       </c>
       <c r="N24" t="n">
-        <v>4.341321808005223</v>
+        <v>4.575833194398363</v>
       </c>
       <c r="O24" t="n">
-        <v>72.96003540760742</v>
+        <v>74.37246198861708</v>
       </c>
       <c r="P24" t="n">
-        <v>4.560002212975464</v>
+        <v>4.648278874288568</v>
       </c>
       <c r="Q24" t="n">
-        <v>69.75714011257321</v>
+        <v>72.16168647537924</v>
       </c>
       <c r="R24" t="n">
-        <v>4.465149843939939</v>
+        <v>4.594422056644621</v>
       </c>
       <c r="S24" t="n">
         <v>6</v>
@@ -3917,28 +3917,28 @@
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
         <v>8</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK24" t="n">
         <v>3</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM24" t="n">
         <v>3</v>
@@ -3953,16 +3953,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS24" t="n">
         <v>8</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="25">
@@ -3977,64 +3977,64 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>65.93384632666591</v>
+        <v>66.24921526214459</v>
       </c>
       <c r="D25" t="n">
-        <v>4.709560451904709</v>
+        <v>4.732086804438899</v>
       </c>
       <c r="E25" t="n">
-        <v>69.22598638685247</v>
+        <v>69.30703727734341</v>
       </c>
       <c r="F25" t="n">
-        <v>4.944713313346605</v>
+        <v>4.950502662667386</v>
       </c>
       <c r="G25" t="n">
-        <v>89.23193002295343</v>
+        <v>87.19403026951966</v>
       </c>
       <c r="H25" t="n">
-        <v>4.696417369629128</v>
+        <v>4.589159487869455</v>
       </c>
       <c r="I25" t="n">
-        <v>96.86225906151945</v>
+        <v>94.51809744912723</v>
       </c>
       <c r="J25" t="n">
-        <v>4.402829957341793</v>
+        <v>4.296277156778509</v>
       </c>
       <c r="K25" t="n">
-        <v>29.66368364269078</v>
+        <v>27.91238572747361</v>
       </c>
       <c r="L25" t="n">
-        <v>4.943947273781797</v>
+        <v>4.652064287912268</v>
       </c>
       <c r="M25" t="n">
-        <v>75.7355151657973</v>
+        <v>72.78139932631652</v>
       </c>
       <c r="N25" t="n">
-        <v>4.45503030387043</v>
+        <v>4.281258783900972</v>
       </c>
       <c r="O25" t="n">
-        <v>69.80097742379216</v>
+        <v>67.90428426075637</v>
       </c>
       <c r="P25" t="n">
-        <v>4.362561088987011</v>
+        <v>4.244017766297273</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.92202829003878</v>
+        <v>69.40949279609734</v>
       </c>
       <c r="R25" t="n">
-        <v>4.64500853698021</v>
+        <v>4.535052421409252</v>
       </c>
       <c r="S25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
         <v>8</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="W25" t="n">
         <v>1</v>
@@ -4049,16 +4049,16 @@
         <v>0.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC25" t="n">
         <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AE25" t="n">
         <v>3</v>
@@ -4073,16 +4073,16 @@
         <v>0.15</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK25" t="n">
         <v>3</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM25" t="n">
         <v>3</v>
@@ -4097,16 +4097,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS25" t="n">
         <v>7</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="26">
@@ -4121,64 +4121,64 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>38.94719356116861</v>
+        <v>38.40835892550207</v>
       </c>
       <c r="D26" t="n">
-        <v>3.540653960106237</v>
+        <v>3.491668993227461</v>
       </c>
       <c r="E26" t="n">
-        <v>52.96863085136106</v>
+        <v>53.83448230067553</v>
       </c>
       <c r="F26" t="n">
-        <v>4.074510065489313</v>
+        <v>4.141114023128887</v>
       </c>
       <c r="G26" t="n">
-        <v>90.18113059268285</v>
+        <v>92.05349136750543</v>
       </c>
       <c r="H26" t="n">
-        <v>4.509056529634142</v>
+        <v>4.602674568375271</v>
       </c>
       <c r="I26" t="n">
-        <v>84.23840006455978</v>
+        <v>84.31028953796928</v>
       </c>
       <c r="J26" t="n">
-        <v>4.011352384026655</v>
+        <v>4.014775692284251</v>
       </c>
       <c r="K26" t="n">
-        <v>40.52599180394831</v>
+        <v>39.36769113146057</v>
       </c>
       <c r="L26" t="n">
-        <v>4.502887978216479</v>
+        <v>4.374187903495621</v>
       </c>
       <c r="M26" t="n">
-        <v>58.56868992754828</v>
+        <v>60.27000945330442</v>
       </c>
       <c r="N26" t="n">
-        <v>4.505283840580637</v>
+        <v>4.636154573331109</v>
       </c>
       <c r="O26" t="n">
-        <v>50.67688361268053</v>
+        <v>50.17490277921544</v>
       </c>
       <c r="P26" t="n">
-        <v>4.223073634390044</v>
+        <v>4.181241898267953</v>
       </c>
       <c r="Q26" t="n">
-        <v>59.44384577342134</v>
+        <v>59.77417507080468</v>
       </c>
       <c r="R26" t="n">
-        <v>4.195259770349073</v>
+        <v>4.205973950301508</v>
       </c>
       <c r="S26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U26" t="n">
         <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="W26" t="n">
         <v>3</v>
@@ -4205,28 +4205,28 @@
         <v>0.3125</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK26" t="n">
         <v>6</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AM26" t="n">
         <v>3</v>
@@ -4241,16 +4241,16 @@
         <v>0.2727272727272727</v>
       </c>
       <c r="AQ26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS26" t="n">
         <v>5</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="27">
@@ -4265,64 +4265,64 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>48.06227570449251</v>
+        <v>49.28153051257421</v>
       </c>
       <c r="D27" t="n">
-        <v>3.697098131114809</v>
+        <v>3.790886962505708</v>
       </c>
       <c r="E27" t="n">
-        <v>48.26312170026414</v>
+        <v>49.892619741655</v>
       </c>
       <c r="F27" t="n">
-        <v>4.387556518205831</v>
+        <v>4.535692703786818</v>
       </c>
       <c r="G27" t="n">
-        <v>93.47473016697553</v>
+        <v>96.23240759089796</v>
       </c>
       <c r="H27" t="n">
-        <v>4.451177626998835</v>
+        <v>4.582495599566571</v>
       </c>
       <c r="I27" t="n">
-        <v>78.22894551799246</v>
+        <v>79.8768019750007</v>
       </c>
       <c r="J27" t="n">
-        <v>3.725187881809165</v>
+        <v>3.803657236904796</v>
       </c>
       <c r="K27" t="n">
-        <v>18.59096497732624</v>
+        <v>18.68042675304661</v>
       </c>
       <c r="L27" t="n">
-        <v>3.718192995465247</v>
+        <v>3.736085350609321</v>
       </c>
       <c r="M27" t="n">
-        <v>45.83413468996217</v>
+        <v>47.1836673316181</v>
       </c>
       <c r="N27" t="n">
-        <v>4.166739517269288</v>
+        <v>4.289424302874371</v>
       </c>
       <c r="O27" t="n">
-        <v>65.99038685961763</v>
+        <v>67.35999131546828</v>
       </c>
       <c r="P27" t="n">
-        <v>4.399359123974508</v>
+        <v>4.490666087697885</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.92065137380438</v>
+        <v>58.35820646003727</v>
       </c>
       <c r="R27" t="n">
-        <v>4.077901684976812</v>
+        <v>4.175558320563638</v>
       </c>
       <c r="S27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
         <v>4</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W27" t="n">
         <v>3</v>
@@ -4349,28 +4349,28 @@
         <v>0.3529411764705883</v>
       </c>
       <c r="AE27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG27" t="n">
         <v>6</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="AI27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>1</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>2</v>
-      </c>
       <c r="AK27" t="n">
         <v>2</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AM27" t="n">
         <v>3</v>
@@ -4385,16 +4385,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS27" t="n">
         <v>8</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="28">
@@ -4409,64 +4409,64 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>46.65100272390512</v>
+        <v>47.02775567033836</v>
       </c>
       <c r="D28" t="n">
-        <v>3.332214480278937</v>
+        <v>3.359125405024168</v>
       </c>
       <c r="E28" t="n">
-        <v>64.1678432523384</v>
+        <v>65.11392470125068</v>
       </c>
       <c r="F28" t="n">
-        <v>4.27785621682256</v>
+        <v>4.340928313416712</v>
       </c>
       <c r="G28" t="n">
-        <v>90.23778244941295</v>
+        <v>91.67247697432178</v>
       </c>
       <c r="H28" t="n">
-        <v>4.511889122470647</v>
+        <v>4.583623848716089</v>
       </c>
       <c r="I28" t="n">
-        <v>73.79301528638362</v>
+        <v>73.92730667974851</v>
       </c>
       <c r="J28" t="n">
-        <v>3.689650764319181</v>
+        <v>3.696365333987425</v>
       </c>
       <c r="K28" t="n">
-        <v>14.28762331638063</v>
+        <v>13.98692172636401</v>
       </c>
       <c r="L28" t="n">
-        <v>3.571905829095158</v>
+        <v>3.496730431591003</v>
       </c>
       <c r="M28" t="n">
-        <v>62.49705599865482</v>
+        <v>63.11041442075273</v>
       </c>
       <c r="N28" t="n">
-        <v>4.166470399910321</v>
+        <v>4.207360961383515</v>
       </c>
       <c r="O28" t="n">
-        <v>61.91252457465542</v>
+        <v>61.95791152480552</v>
       </c>
       <c r="P28" t="n">
-        <v>4.127501638310362</v>
+        <v>4.130527434987035</v>
       </c>
       <c r="Q28" t="n">
-        <v>59.07812108596156</v>
+        <v>59.5423873853688</v>
       </c>
       <c r="R28" t="n">
-        <v>3.953926921601024</v>
+        <v>3.973523104157993</v>
       </c>
       <c r="S28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="W28" t="n">
         <v>2</v>
@@ -4493,28 +4493,28 @@
         <v>0.3076923076923077</v>
       </c>
       <c r="AE28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG28" t="n">
         <v>5</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="AI28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>1</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>2</v>
       </c>
       <c r="AK28" t="n">
         <v>1</v>
       </c>
       <c r="AL28" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AM28" t="n">
         <v>2</v>
@@ -4529,16 +4529,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AQ28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS28" t="n">
         <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="29">
@@ -4553,52 +4553,52 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>34.27353835928657</v>
+        <v>34.53613034368277</v>
       </c>
       <c r="D29" t="n">
-        <v>3.115776214480598</v>
+        <v>3.13964821306207</v>
       </c>
       <c r="E29" t="n">
-        <v>53.79094061886683</v>
+        <v>54.29341165403928</v>
       </c>
       <c r="F29" t="n">
-        <v>4.890085510806076</v>
+        <v>4.935764695821752</v>
       </c>
       <c r="G29" t="n">
-        <v>100.9982998576785</v>
+        <v>101.510604316516</v>
       </c>
       <c r="H29" t="n">
-        <v>4.590831811712659</v>
+        <v>4.614118378023454</v>
       </c>
       <c r="I29" t="n">
-        <v>78.68204990141876</v>
+        <v>79.19290409435894</v>
       </c>
       <c r="J29" t="n">
-        <v>3.934102495070938</v>
+        <v>3.959645204717947</v>
       </c>
       <c r="K29" t="n">
-        <v>30.47530083699198</v>
+        <v>30.60144856614291</v>
       </c>
       <c r="L29" t="n">
-        <v>5.079216806165329</v>
+        <v>5.100241427690486</v>
       </c>
       <c r="M29" t="n">
-        <v>55.74018269012469</v>
+        <v>55.85726375837833</v>
       </c>
       <c r="N29" t="n">
-        <v>3.981441620723192</v>
+        <v>3.989804554169881</v>
       </c>
       <c r="O29" t="n">
-        <v>34.52641810479667</v>
+        <v>34.73954678434784</v>
       </c>
       <c r="P29" t="n">
-        <v>3.452641810479667</v>
+        <v>3.473954678434783</v>
       </c>
       <c r="Q29" t="n">
-        <v>55.49810433845199</v>
+        <v>55.81875850249515</v>
       </c>
       <c r="R29" t="n">
-        <v>4.14915660991978</v>
+        <v>4.173311021702911</v>
       </c>
       <c r="S29" t="n">
         <v>7</v>
@@ -4697,52 +4697,52 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>36.46245191072126</v>
+        <v>34.14906624401487</v>
       </c>
       <c r="D30" t="n">
-        <v>3.314768355520115</v>
+        <v>3.104460567637716</v>
       </c>
       <c r="E30" t="n">
-        <v>56.37308632366628</v>
+        <v>56.2389422093382</v>
       </c>
       <c r="F30" t="n">
-        <v>5.124826029424208</v>
+        <v>5.112631109939837</v>
       </c>
       <c r="G30" t="n">
-        <v>104.4721735048698</v>
+        <v>102.2472877626572</v>
       </c>
       <c r="H30" t="n">
-        <v>4.748735159312262</v>
+        <v>4.647603989211689</v>
       </c>
       <c r="I30" t="n">
-        <v>85.95903732965014</v>
+        <v>84.75074976140765</v>
       </c>
       <c r="J30" t="n">
-        <v>4.297951866482506</v>
+        <v>4.237537488070382</v>
       </c>
       <c r="K30" t="n">
-        <v>30.82111291154526</v>
+        <v>31.1467667360836</v>
       </c>
       <c r="L30" t="n">
-        <v>5.13685215192421</v>
+        <v>5.191127789347266</v>
       </c>
       <c r="M30" t="n">
-        <v>67.87306482745936</v>
+        <v>68.48768287760126</v>
       </c>
       <c r="N30" t="n">
-        <v>4.52487098849729</v>
+        <v>4.565845525173417</v>
       </c>
       <c r="O30" t="n">
-        <v>37.60710240128321</v>
+        <v>35.69398157984752</v>
       </c>
       <c r="P30" t="n">
-        <v>3.418827491025747</v>
+        <v>3.244907416349773</v>
       </c>
       <c r="Q30" t="n">
-        <v>59.9382898870279</v>
+        <v>58.95921102442146</v>
       </c>
       <c r="R30" t="n">
-        <v>4.366690291740905</v>
+        <v>4.30058769796144</v>
       </c>
       <c r="S30" t="n">
         <v>7</v>
@@ -4841,64 +4841,64 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>45.28351357934534</v>
+        <v>44.99296293722721</v>
       </c>
       <c r="D31" t="n">
-        <v>3.773626131612112</v>
+        <v>3.749413578102267</v>
       </c>
       <c r="E31" t="n">
-        <v>49.40948235776494</v>
+        <v>50.94572527287029</v>
       </c>
       <c r="F31" t="n">
-        <v>4.491771123433177</v>
+        <v>4.631429570260935</v>
       </c>
       <c r="G31" t="n">
-        <v>113.1669145947011</v>
+        <v>115.9923569558145</v>
       </c>
       <c r="H31" t="n">
-        <v>4.715288108112546</v>
+        <v>4.833014873158938</v>
       </c>
       <c r="I31" t="n">
-        <v>118.5086461942384</v>
+        <v>120.6811980950051</v>
       </c>
       <c r="J31" t="n">
-        <v>4.740345847769536</v>
+        <v>4.827247923800203</v>
       </c>
       <c r="K31" t="n">
-        <v>18.4369186014078</v>
+        <v>17.0256433292099</v>
       </c>
       <c r="L31" t="n">
-        <v>4.609229650351951</v>
+        <v>4.256410832302476</v>
       </c>
       <c r="M31" t="n">
-        <v>62.94572615483138</v>
+        <v>64.74084072312395</v>
       </c>
       <c r="N31" t="n">
-        <v>4.49612329677367</v>
+        <v>4.624345765937425</v>
       </c>
       <c r="O31" t="n">
-        <v>43.57929937987753</v>
+        <v>42.57352777830564</v>
       </c>
       <c r="P31" t="n">
-        <v>3.631608281656461</v>
+        <v>3.54779398152547</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.47578583745235</v>
+        <v>65.27889358450808</v>
       </c>
       <c r="R31" t="n">
-        <v>4.351141777101351</v>
+        <v>4.352808075012531</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U31" t="n">
         <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="W31" t="n">
         <v>3</v>
@@ -4925,28 +4925,28 @@
         <v>0.2631578947368421</v>
       </c>
       <c r="AE31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG31" t="n">
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="AI31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK31" t="n">
         <v>1</v>
       </c>
       <c r="AL31" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AM31" t="n">
         <v>2</v>
@@ -4961,16 +4961,16 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS31" t="n">
         <v>2</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32">
@@ -4985,64 +4985,64 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>64.59346703258151</v>
+        <v>62.37844438549473</v>
       </c>
       <c r="D32" t="n">
-        <v>4.306231135505435</v>
+        <v>4.158562959032982</v>
       </c>
       <c r="E32" t="n">
-        <v>48.44904681671866</v>
+        <v>49.08496357507393</v>
       </c>
       <c r="F32" t="n">
-        <v>4.844904681671865</v>
+        <v>4.908496357507392</v>
       </c>
       <c r="G32" t="n">
-        <v>103.1692578635554</v>
+        <v>102.6980997744904</v>
       </c>
       <c r="H32" t="n">
-        <v>4.912821803026446</v>
+        <v>4.890385703547161</v>
       </c>
       <c r="I32" t="n">
-        <v>117.9436508826806</v>
+        <v>118.8749502541231</v>
       </c>
       <c r="J32" t="n">
-        <v>4.914318786778358</v>
+        <v>4.953122927255127</v>
       </c>
       <c r="K32" t="n">
-        <v>24.53212916262102</v>
+        <v>23.65225901468576</v>
       </c>
       <c r="L32" t="n">
-        <v>4.906425832524204</v>
+        <v>4.730451802937152</v>
       </c>
       <c r="M32" t="n">
-        <v>61.81286035621621</v>
+        <v>63.57237067330833</v>
       </c>
       <c r="N32" t="n">
-        <v>4.754835412016631</v>
+        <v>4.890182359485256</v>
       </c>
       <c r="O32" t="n">
-        <v>57.01850516769223</v>
+        <v>55.80907801244959</v>
       </c>
       <c r="P32" t="n">
-        <v>4.072750369120874</v>
+        <v>3.986362715174971</v>
       </c>
       <c r="Q32" t="n">
-        <v>68.21698818315222</v>
+        <v>68.01002366994655</v>
       </c>
       <c r="R32" t="n">
-        <v>4.673184002949117</v>
+        <v>4.645366403562863</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
         <v>6</v>
       </c>
       <c r="V32" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="W32" t="n">
         <v>2</v>
@@ -5069,28 +5069,28 @@
         <v>0.125</v>
       </c>
       <c r="AE32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG32" t="n">
         <v>9</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK32" t="n">
         <v>2</v>
       </c>
       <c r="AL32" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM32" t="n">
         <v>3</v>
@@ -5105,16 +5105,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS32" t="n">
         <v>6</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33">
@@ -5129,64 +5129,64 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>42.36885433285121</v>
+        <v>42.84336049590717</v>
       </c>
       <c r="D33" t="n">
-        <v>3.851714030259201</v>
+        <v>3.894850954173379</v>
       </c>
       <c r="E33" t="n">
-        <v>47.37924521290651</v>
+        <v>48.35669968184511</v>
       </c>
       <c r="F33" t="n">
-        <v>4.307204110264229</v>
+        <v>4.396063607440464</v>
       </c>
       <c r="G33" t="n">
-        <v>112.6782536580208</v>
+        <v>109.2553240241065</v>
       </c>
       <c r="H33" t="n">
-        <v>4.694927235750868</v>
+        <v>4.552305167671105</v>
       </c>
       <c r="I33" t="n">
-        <v>99.84165806789626</v>
+        <v>97.66507354572882</v>
       </c>
       <c r="J33" t="n">
-        <v>4.340941655125924</v>
+        <v>4.246307545466471</v>
       </c>
       <c r="K33" t="n">
-        <v>21.85993609367473</v>
+        <v>18.59534979739607</v>
       </c>
       <c r="L33" t="n">
-        <v>4.371987218734946</v>
+        <v>3.719069959479214</v>
       </c>
       <c r="M33" t="n">
-        <v>51.38713051353439</v>
+        <v>50.34167922837122</v>
       </c>
       <c r="N33" t="n">
-        <v>4.282260876127866</v>
+        <v>4.195139935697602</v>
       </c>
       <c r="O33" t="n">
-        <v>51.50345145393331</v>
+        <v>50.35489376168863</v>
       </c>
       <c r="P33" t="n">
-        <v>3.678817960995236</v>
+        <v>3.596778125834902</v>
       </c>
       <c r="Q33" t="n">
-        <v>61.00264704754532</v>
+        <v>59.63034007643479</v>
       </c>
       <c r="R33" t="n">
-        <v>4.218264726751181</v>
+        <v>4.085787899394734</v>
       </c>
       <c r="S33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
         <v>3</v>
       </c>
       <c r="V33" t="n">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="W33" t="n">
         <v>2</v>
@@ -5213,28 +5213,28 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AE33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG33" t="n">
         <v>8</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AI33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK33" t="n">
         <v>2</v>
       </c>
       <c r="AL33" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM33" t="n">
         <v>3</v>
@@ -5249,16 +5249,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS33" t="n">
         <v>5</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5384615384615384</v>
       </c>
     </row>
     <row r="34">
@@ -5273,64 +5273,64 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>42.51177710743349</v>
+        <v>41.29182699934326</v>
       </c>
       <c r="D34" t="n">
-        <v>3.86470700976668</v>
+        <v>3.75380245448575</v>
       </c>
       <c r="E34" t="n">
-        <v>44.65939346291648</v>
+        <v>43.97784697784933</v>
       </c>
       <c r="F34" t="n">
-        <v>4.059944860265134</v>
+        <v>3.997986088895393</v>
       </c>
       <c r="G34" t="n">
-        <v>95.41971172076074</v>
+        <v>92.73028130529691</v>
       </c>
       <c r="H34" t="n">
-        <v>4.543795796226701</v>
+        <v>4.415727681204614</v>
       </c>
       <c r="I34" t="n">
-        <v>77.61951203739292</v>
+        <v>77.11744444936444</v>
       </c>
       <c r="J34" t="n">
-        <v>3.880975601869646</v>
+        <v>3.855872222468222</v>
       </c>
       <c r="K34" t="n">
-        <v>50.06860198848177</v>
+        <v>48.14585687587491</v>
       </c>
       <c r="L34" t="n">
-        <v>4.551691089861979</v>
+        <v>4.376896079624992</v>
       </c>
       <c r="M34" t="n">
-        <v>81.3431563570831</v>
+        <v>81.79648462149763</v>
       </c>
       <c r="N34" t="n">
-        <v>4.784891550416653</v>
+        <v>4.811557918911626</v>
       </c>
       <c r="O34" t="n">
-        <v>42.36230792878561</v>
+        <v>39.69837487354387</v>
       </c>
       <c r="P34" t="n">
-        <v>3.851118902616874</v>
+        <v>3.60894317032217</v>
       </c>
       <c r="Q34" t="n">
-        <v>61.99778008612201</v>
+        <v>60.67973087182433</v>
       </c>
       <c r="R34" t="n">
-        <v>4.219589258717667</v>
+        <v>4.117255087987538</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
         <v>3</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="W34" t="n">
         <v>2</v>
@@ -5357,28 +5357,28 @@
         <v>0.1875</v>
       </c>
       <c r="AE34" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG34" t="n">
         <v>2</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK34" t="n">
         <v>7</v>
       </c>
       <c r="AL34" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AM34" t="n">
         <v>2</v>
@@ -5393,16 +5393,16 @@
         <v>0.1818181818181818</v>
       </c>
       <c r="AQ34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS34" t="n">
         <v>5</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="35">
@@ -5417,52 +5417,52 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>48.85459415794983</v>
+        <v>49.21542489618668</v>
       </c>
       <c r="D35" t="n">
-        <v>4.071216179829153</v>
+        <v>4.101285408015556</v>
       </c>
       <c r="E35" t="n">
-        <v>44.20122019790859</v>
+        <v>44.49184131054917</v>
       </c>
       <c r="F35" t="n">
-        <v>4.420122019790859</v>
+        <v>4.449184131054917</v>
       </c>
       <c r="G35" t="n">
-        <v>109.2831076436112</v>
+        <v>109.9459236681358</v>
       </c>
       <c r="H35" t="n">
-        <v>4.751439462765704</v>
+        <v>4.780257550788514</v>
       </c>
       <c r="I35" t="n">
-        <v>88.24575427101772</v>
+        <v>88.87995686689517</v>
       </c>
       <c r="J35" t="n">
-        <v>4.202178774810368</v>
+        <v>4.23237889842358</v>
       </c>
       <c r="K35" t="n">
-        <v>33.28454142020652</v>
+        <v>33.48971017414017</v>
       </c>
       <c r="L35" t="n">
-        <v>4.754934488600931</v>
+        <v>4.784244310591453</v>
       </c>
       <c r="M35" t="n">
-        <v>74.55769295968605</v>
+        <v>74.95151427164664</v>
       </c>
       <c r="N35" t="n">
-        <v>4.970512863979069</v>
+        <v>4.996767618109776</v>
       </c>
       <c r="O35" t="n">
-        <v>56.47919316329398</v>
+        <v>56.88822153110039</v>
       </c>
       <c r="P35" t="n">
-        <v>4.344553320253383</v>
+        <v>4.376017040853876</v>
       </c>
       <c r="Q35" t="n">
-        <v>64.98658625909627</v>
+        <v>65.40894181695057</v>
       </c>
       <c r="R35" t="n">
-        <v>4.502136730004209</v>
+        <v>4.531447851119667</v>
       </c>
       <c r="S35" t="n">
         <v>4</v>
@@ -5561,52 +5561,52 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>52.64961241863094</v>
+        <v>53.05554674654612</v>
       </c>
       <c r="D36" t="n">
-        <v>3.760686601330781</v>
+        <v>3.789681910467581</v>
       </c>
       <c r="E36" t="n">
-        <v>53.65584472791446</v>
+        <v>54.03377149983319</v>
       </c>
       <c r="F36" t="n">
-        <v>4.471320393992872</v>
+        <v>4.502814291652766</v>
       </c>
       <c r="G36" t="n">
-        <v>95.12065452029438</v>
+        <v>95.66876083204322</v>
       </c>
       <c r="H36" t="n">
-        <v>4.75603272601472</v>
+        <v>4.783438041602161</v>
       </c>
       <c r="I36" t="n">
-        <v>81.73555981232451</v>
+        <v>82.31072809638131</v>
       </c>
       <c r="J36" t="n">
-        <v>4.086777990616225</v>
+        <v>4.115536404819065</v>
       </c>
       <c r="K36" t="n">
-        <v>33.89073776310766</v>
+        <v>34.08566132220616</v>
       </c>
       <c r="L36" t="n">
-        <v>4.841533966158236</v>
+        <v>4.869380188886595</v>
       </c>
       <c r="M36" t="n">
-        <v>93.09270964182667</v>
+        <v>93.33688631132928</v>
       </c>
       <c r="N36" t="n">
-        <v>4.654635482091335</v>
+        <v>4.666844315566464</v>
       </c>
       <c r="O36" t="n">
-        <v>51.98255098434905</v>
+        <v>52.37567453829459</v>
       </c>
       <c r="P36" t="n">
-        <v>3.99865776802685</v>
+        <v>4.028898041407276</v>
       </c>
       <c r="Q36" t="n">
-        <v>66.01823855263538</v>
+        <v>66.40957562094769</v>
       </c>
       <c r="R36" t="n">
-        <v>4.367092132604431</v>
+        <v>4.393799027771701</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -5705,52 +5705,52 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>32.66031265866387</v>
+        <v>32.95781251702465</v>
       </c>
       <c r="D37" t="n">
-        <v>2.969119332605807</v>
+        <v>2.996164774274968</v>
       </c>
       <c r="E37" t="n">
-        <v>51.01296890371674</v>
+        <v>51.58546988060059</v>
       </c>
       <c r="F37" t="n">
-        <v>4.637542627610613</v>
+        <v>4.68958817096369</v>
       </c>
       <c r="G37" t="n">
-        <v>97.12443697749778</v>
+        <v>97.71827176202844</v>
       </c>
       <c r="H37" t="n">
-        <v>4.414747135340808</v>
+        <v>4.441739625546747</v>
       </c>
       <c r="I37" t="n">
-        <v>77.66632882333499</v>
+        <v>78.19797286388496</v>
       </c>
       <c r="J37" t="n">
-        <v>3.88331644116675</v>
+        <v>3.909898643194248</v>
       </c>
       <c r="K37" t="n">
-        <v>29.93959570641394</v>
+        <v>30.09766291319432</v>
       </c>
       <c r="L37" t="n">
-        <v>4.989932617735656</v>
+        <v>5.016277152199054</v>
       </c>
       <c r="M37" t="n">
-        <v>56.81496336996944</v>
+        <v>56.93603600556605</v>
       </c>
       <c r="N37" t="n">
-        <v>4.058211669283531</v>
+        <v>4.066859714683289</v>
       </c>
       <c r="O37" t="n">
-        <v>31.83266460251166</v>
+        <v>32.10119646752909</v>
       </c>
       <c r="P37" t="n">
-        <v>3.183266460251167</v>
+        <v>3.210119646752909</v>
       </c>
       <c r="Q37" t="n">
-        <v>53.86446729172977</v>
+        <v>54.22777462997544</v>
       </c>
       <c r="R37" t="n">
-        <v>4.019448040570619</v>
+        <v>4.047235389659272</v>
       </c>
       <c r="S37" t="n">
         <v>7</v>
@@ -5849,52 +5849,52 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>23.50148566838935</v>
+        <v>21.17320812563209</v>
       </c>
       <c r="D38" t="n">
-        <v>2.136498697126304</v>
+        <v>1.92483710233019</v>
       </c>
       <c r="E38" t="n">
-        <v>16.63728704259841</v>
+        <v>15.55634972383733</v>
       </c>
       <c r="F38" t="n">
-        <v>2.376755291799773</v>
+        <v>2.222335674833904</v>
       </c>
       <c r="G38" t="n">
-        <v>70.99339934101114</v>
+        <v>65.76845835987554</v>
       </c>
       <c r="H38" t="n">
-        <v>3.549669967050558</v>
+        <v>3.288422917993777</v>
       </c>
       <c r="I38" t="n">
-        <v>52.36264693161125</v>
+        <v>46.01665436137692</v>
       </c>
       <c r="J38" t="n">
-        <v>2.618132346580563</v>
+        <v>2.300832718068846</v>
       </c>
       <c r="K38" t="n">
-        <v>18.37789174572459</v>
+        <v>17.53454012341375</v>
       </c>
       <c r="L38" t="n">
-        <v>3.062981957620765</v>
+        <v>2.922423353902292</v>
       </c>
       <c r="M38" t="n">
-        <v>57.01543877688355</v>
+        <v>54.76796353466359</v>
       </c>
       <c r="N38" t="n">
-        <v>3.563464923555222</v>
+        <v>3.422997720916475</v>
       </c>
       <c r="O38" t="n">
-        <v>30.22778713115742</v>
+        <v>28.63738445966269</v>
       </c>
       <c r="P38" t="n">
-        <v>2.747980648287038</v>
+        <v>2.603398587242063</v>
       </c>
       <c r="Q38" t="n">
-        <v>38.44513380533939</v>
+        <v>35.63636552692313</v>
       </c>
       <c r="R38" t="n">
-        <v>2.865069118860032</v>
+        <v>2.669321153612507</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5993,64 +5993,64 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>40.22842253891628</v>
+        <v>37.60608607762337</v>
       </c>
       <c r="D39" t="n">
-        <v>3.657129321719662</v>
+        <v>3.418735097965762</v>
       </c>
       <c r="E39" t="n">
-        <v>44.87712843712261</v>
+        <v>44.94685068045407</v>
       </c>
       <c r="F39" t="n">
-        <v>4.079738948829328</v>
+        <v>4.086077334586733</v>
       </c>
       <c r="G39" t="n">
-        <v>94.21659375572889</v>
+        <v>94.79985351427304</v>
       </c>
       <c r="H39" t="n">
-        <v>4.282572443442223</v>
+        <v>4.309084250648774</v>
       </c>
       <c r="I39" t="n">
-        <v>113.4513518065983</v>
+        <v>112.5876764013835</v>
       </c>
       <c r="J39" t="n">
-        <v>4.538054072263933</v>
+        <v>4.503507056055342</v>
       </c>
       <c r="K39" t="n">
-        <v>31.67850800513582</v>
+        <v>29.88462677253509</v>
       </c>
       <c r="L39" t="n">
-        <v>4.525501143590831</v>
+        <v>4.269232396076442</v>
       </c>
       <c r="M39" t="n">
-        <v>78.28468117817431</v>
+        <v>77.88595061443303</v>
       </c>
       <c r="N39" t="n">
-        <v>4.349148954343017</v>
+        <v>4.32699725635739</v>
       </c>
       <c r="O39" t="n">
-        <v>43.49415111818612</v>
+        <v>41.60686372125751</v>
       </c>
       <c r="P39" t="n">
-        <v>3.624512593182177</v>
+        <v>3.467238643438126</v>
       </c>
       <c r="Q39" t="n">
-        <v>63.74726240569463</v>
+        <v>62.75970111170852</v>
       </c>
       <c r="R39" t="n">
-        <v>4.150951068195882</v>
+        <v>4.054410290732653</v>
       </c>
       <c r="S39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U39" t="n">
         <v>1</v>
       </c>
       <c r="V39" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="W39" t="n">
         <v>1</v>
@@ -6077,28 +6077,28 @@
         <v>0.3684210526315789</v>
       </c>
       <c r="AE39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF39" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG39" t="n">
         <v>12</v>
       </c>
       <c r="AH39" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="AI39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>1</v>
       </c>
-      <c r="AJ39" t="n">
-        <v>2</v>
-      </c>
       <c r="AK39" t="n">
         <v>4</v>
       </c>
       <c r="AL39" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AM39" t="n">
         <v>2</v>
@@ -6113,16 +6113,16 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS39" t="n">
         <v>4</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="40">
@@ -6137,64 +6137,64 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>60.48858975698734</v>
+        <v>55.67922610186802</v>
       </c>
       <c r="D40" t="n">
-        <v>4.320613554070523</v>
+        <v>3.977087578704858</v>
       </c>
       <c r="E40" t="n">
-        <v>49.98997342962743</v>
+        <v>50.07522678863349</v>
       </c>
       <c r="F40" t="n">
-        <v>4.998997342962744</v>
+        <v>5.007522678863348</v>
       </c>
       <c r="G40" t="n">
-        <v>112.0328368794022</v>
+        <v>105.4563664985646</v>
       </c>
       <c r="H40" t="n">
-        <v>5.092401676336466</v>
+        <v>4.79347120448021</v>
       </c>
       <c r="I40" t="n">
-        <v>96.93954716981082</v>
+        <v>93.73376871323369</v>
       </c>
       <c r="J40" t="n">
-        <v>4.214762920426558</v>
+        <v>4.075381248401465</v>
       </c>
       <c r="K40" t="n">
-        <v>40.71206633626823</v>
+        <v>36.54008198568853</v>
       </c>
       <c r="L40" t="n">
-        <v>5.089008292033529</v>
+        <v>4.567510248211065</v>
       </c>
       <c r="M40" t="n">
-        <v>77.97323504631832</v>
+        <v>77.9692798897012</v>
       </c>
       <c r="N40" t="n">
-        <v>4.586660885077548</v>
+        <v>4.586428228805953</v>
       </c>
       <c r="O40" t="n">
-        <v>59.61076877803151</v>
+        <v>58.33034674800508</v>
       </c>
       <c r="P40" t="n">
-        <v>4.257912055573679</v>
+        <v>4.166453339143221</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.10671677092084</v>
+        <v>68.25489953224209</v>
       </c>
       <c r="R40" t="n">
-        <v>4.651479532354435</v>
+        <v>4.453407789515731</v>
       </c>
       <c r="S40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U40" t="n">
         <v>5</v>
       </c>
       <c r="V40" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -6221,40 +6221,40 @@
         <v>0.0625</v>
       </c>
       <c r="AE40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF40" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG40" t="n">
         <v>6</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK40" t="n">
         <v>5</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN40" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO40" t="n">
         <v>8</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="AQ40" t="n">
         <v>3</v>
@@ -6281,64 +6281,64 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>35.1196902315528</v>
+        <v>34.01227769055314</v>
       </c>
       <c r="D41" t="n">
-        <v>3.511969023155279</v>
+        <v>3.401227769055314</v>
       </c>
       <c r="E41" t="n">
-        <v>54.01516465399382</v>
+        <v>53.87579406923684</v>
       </c>
       <c r="F41" t="n">
-        <v>4.501263721166152</v>
+        <v>4.489649505769737</v>
       </c>
       <c r="G41" t="n">
-        <v>86.21662533739605</v>
+        <v>85.19905602875562</v>
       </c>
       <c r="H41" t="n">
-        <v>3.918937515336185</v>
+        <v>3.872684364943438</v>
       </c>
       <c r="I41" t="n">
-        <v>99.42357877249931</v>
+        <v>97.4978786413172</v>
       </c>
       <c r="J41" t="n">
-        <v>4.322764294456492</v>
+        <v>4.2390382017964</v>
       </c>
       <c r="K41" t="n">
-        <v>30.44326725502799</v>
+        <v>28.76025437624999</v>
       </c>
       <c r="L41" t="n">
-        <v>4.349038179289713</v>
+        <v>4.108607768035712</v>
       </c>
       <c r="M41" t="n">
-        <v>82.96460945108262</v>
+        <v>81.8690330724751</v>
       </c>
       <c r="N41" t="n">
-        <v>4.880271144181331</v>
+        <v>4.815825474851477</v>
       </c>
       <c r="O41" t="n">
-        <v>45.49716929410995</v>
+        <v>42.2264838168575</v>
       </c>
       <c r="P41" t="n">
-        <v>3.249797806722138</v>
+        <v>3.016177415489821</v>
       </c>
       <c r="Q41" t="n">
-        <v>61.95430071366608</v>
+        <v>60.49153967077791</v>
       </c>
       <c r="R41" t="n">
-        <v>4.104863097758185</v>
+        <v>3.991887214277414</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
         <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -6365,28 +6365,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AE41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG41" t="n">
         <v>7</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="AI41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK41" t="n">
         <v>3</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AM41" t="n">
         <v>2</v>
@@ -6401,16 +6401,16 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS41" t="n">
         <v>7</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="42">
@@ -6425,100 +6425,100 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>49.67914790900159</v>
+        <v>44.24863903859862</v>
       </c>
       <c r="D42" t="n">
-        <v>4.516286173545598</v>
+        <v>4.022603548963511</v>
       </c>
       <c r="E42" t="n">
-        <v>43.49482558510272</v>
+        <v>42.99418135422884</v>
       </c>
       <c r="F42" t="n">
-        <v>3.954075053191156</v>
+        <v>3.908561941293532</v>
       </c>
       <c r="G42" t="n">
-        <v>100.1583734196863</v>
+        <v>98.19849542000902</v>
       </c>
       <c r="H42" t="n">
-        <v>4.769446353318395</v>
+        <v>4.676118829524239</v>
       </c>
       <c r="I42" t="n">
-        <v>96.28161598311127</v>
+        <v>85.81859214406532</v>
       </c>
       <c r="J42" t="n">
-        <v>4.584838856338631</v>
+        <v>4.086599625907872</v>
       </c>
       <c r="K42" t="n">
-        <v>51.69314454363814</v>
+        <v>49.60272955165497</v>
       </c>
       <c r="L42" t="n">
-        <v>4.699376776694377</v>
+        <v>4.509339050150452</v>
       </c>
       <c r="M42" t="n">
-        <v>81.15472755816408</v>
+        <v>72.64759537886496</v>
       </c>
       <c r="N42" t="n">
-        <v>4.773807503421416</v>
+        <v>4.273387963462645</v>
       </c>
       <c r="O42" t="n">
-        <v>60.59269218167843</v>
+        <v>59.35369880432719</v>
       </c>
       <c r="P42" t="n">
-        <v>4.660976321667571</v>
+        <v>4.565669138794401</v>
       </c>
       <c r="Q42" t="n">
-        <v>69.0077895971975</v>
+        <v>64.69484738453556</v>
       </c>
       <c r="R42" t="n">
-        <v>4.565543862596735</v>
+        <v>4.291754299728093</v>
       </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U42" t="n">
         <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="W42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y42" t="n">
         <v>4</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="AA42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC42" t="n">
         <v>11</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.1875</v>
+        <v>0.125</v>
       </c>
       <c r="AE42" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF42" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG42" t="n">
         <v>5</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="AI42" t="n">
         <v>1</v>
@@ -6533,16 +6533,16 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="AM42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO42" t="n">
         <v>9</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="AQ42" t="n">
         <v>2</v>
@@ -6569,64 +6569,64 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>60.77894105557409</v>
+        <v>57.27290013110912</v>
       </c>
       <c r="D43" t="n">
-        <v>4.675303158121084</v>
+        <v>4.405607702393009</v>
       </c>
       <c r="E43" t="n">
-        <v>45.88644140437254</v>
+        <v>41.88407646693656</v>
       </c>
       <c r="F43" t="n">
-        <v>4.588644140437253</v>
+        <v>4.188407646693656</v>
       </c>
       <c r="G43" t="n">
-        <v>113.2042024649621</v>
+        <v>102.8112620069366</v>
       </c>
       <c r="H43" t="n">
-        <v>4.921921846302697</v>
+        <v>4.470054869866809</v>
       </c>
       <c r="I43" t="n">
-        <v>98.30485985227477</v>
+        <v>93.86516039249815</v>
       </c>
       <c r="J43" t="n">
-        <v>4.681183802489276</v>
+        <v>4.469769542499912</v>
       </c>
       <c r="K43" t="n">
-        <v>37.86127442523661</v>
+        <v>36.60762754857623</v>
       </c>
       <c r="L43" t="n">
-        <v>5.408753489319515</v>
+        <v>5.229661078368033</v>
       </c>
       <c r="M43" t="n">
-        <v>81.56177733882515</v>
+        <v>79.71007085320576</v>
       </c>
       <c r="N43" t="n">
-        <v>5.097611083676573</v>
+        <v>4.981879428325361</v>
       </c>
       <c r="O43" t="n">
-        <v>77.55043505712914</v>
+        <v>72.25185076109227</v>
       </c>
       <c r="P43" t="n">
-        <v>4.846902191070572</v>
+        <v>4.515740672568267</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.59256165691062</v>
+        <v>69.20042116576495</v>
       </c>
       <c r="R43" t="n">
-        <v>4.888617101630996</v>
+        <v>4.608731562959292</v>
       </c>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U43" t="n">
         <v>4</v>
       </c>
       <c r="V43" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="W43" t="n">
         <v>1</v>
@@ -6641,16 +6641,16 @@
         <v>0.125</v>
       </c>
       <c r="AA43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC43" t="n">
         <v>14</v>
       </c>
       <c r="AD43" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="AE43" t="n">
         <v>6</v>
@@ -6713,52 +6713,52 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>61.38393292900841</v>
+        <v>57.28647780982455</v>
       </c>
       <c r="D44" t="n">
-        <v>4.384566637786316</v>
+        <v>4.091891272130325</v>
       </c>
       <c r="E44" t="n">
-        <v>58.94053670617034</v>
+        <v>54.97821976065156</v>
       </c>
       <c r="F44" t="n">
-        <v>4.911711392180862</v>
+        <v>4.58151831338763</v>
       </c>
       <c r="G44" t="n">
-        <v>95.32372042055067</v>
+        <v>92.51794083380568</v>
       </c>
       <c r="H44" t="n">
-        <v>4.766186021027534</v>
+        <v>4.625897041690285</v>
       </c>
       <c r="I44" t="n">
-        <v>98.10028410774348</v>
+        <v>92.6641224090811</v>
       </c>
       <c r="J44" t="n">
-        <v>4.671442100368737</v>
+        <v>4.41257725757529</v>
       </c>
       <c r="K44" t="n">
-        <v>37.92246413297487</v>
+        <v>37.99880785177803</v>
       </c>
       <c r="L44" t="n">
-        <v>5.417494876139267</v>
+        <v>5.428401121682576</v>
       </c>
       <c r="M44" t="n">
-        <v>92.7212477886586</v>
+        <v>89.17802123094931</v>
       </c>
       <c r="N44" t="n">
-        <v>4.636062389432929</v>
+        <v>4.458901061547465</v>
       </c>
       <c r="O44" t="n">
-        <v>72.93141382050122</v>
+        <v>70.91541790763218</v>
       </c>
       <c r="P44" t="n">
-        <v>4.558213363781325</v>
+        <v>4.432213619227011</v>
       </c>
       <c r="Q44" t="n">
-        <v>73.9033714150868</v>
+        <v>70.7912868291032</v>
       </c>
       <c r="R44" t="n">
-        <v>4.763668111530996</v>
+        <v>4.575914241034369</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -6785,16 +6785,16 @@
         <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC44" t="n">
         <v>12</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="AE44" t="n">
         <v>6</v>
@@ -6821,16 +6821,16 @@
         <v>0</v>
       </c>
       <c r="AM44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO44" t="n">
         <v>12</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AQ44" t="n">
         <v>3</v>
@@ -6857,52 +6857,52 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>36.48983841311303</v>
+        <v>33.89968873548696</v>
       </c>
       <c r="D45" t="n">
-        <v>3.317258037555731</v>
+        <v>3.081789885044269</v>
       </c>
       <c r="E45" t="n">
-        <v>54.2017436660152</v>
+        <v>53.6202912083942</v>
       </c>
       <c r="F45" t="n">
-        <v>4.927431242365018</v>
+        <v>4.874571928035836</v>
       </c>
       <c r="G45" t="n">
-        <v>101.1237413723803</v>
+        <v>97.60645758088212</v>
       </c>
       <c r="H45" t="n">
-        <v>4.596533698744557</v>
+        <v>4.436657162767369</v>
       </c>
       <c r="I45" t="n">
-        <v>86.16736119944163</v>
+        <v>84.24143772282932</v>
       </c>
       <c r="J45" t="n">
-        <v>4.308368059972081</v>
+        <v>4.212071886141466</v>
       </c>
       <c r="K45" t="n">
-        <v>30.95150681200187</v>
+        <v>31.0270509685223</v>
       </c>
       <c r="L45" t="n">
-        <v>5.158584468666978</v>
+        <v>5.171175161420384</v>
       </c>
       <c r="M45" t="n">
-        <v>68.34607546278825</v>
+        <v>68.45412121713149</v>
       </c>
       <c r="N45" t="n">
-        <v>4.556405030852551</v>
+        <v>4.5636080811421</v>
       </c>
       <c r="O45" t="n">
-        <v>37.21062672966076</v>
+        <v>35.0921293058675</v>
       </c>
       <c r="P45" t="n">
-        <v>3.382784248150978</v>
+        <v>3.190193573260682</v>
       </c>
       <c r="Q45" t="n">
-        <v>59.21298480791443</v>
+        <v>57.70588239130198</v>
       </c>
       <c r="R45" t="n">
-        <v>4.321052112329699</v>
+        <v>4.218581096830301</v>
       </c>
       <c r="S45" t="n">
         <v>7</v>
@@ -7001,52 +7001,52 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>24.90615242120257</v>
+        <v>21.8704096020434</v>
       </c>
       <c r="D46" t="n">
-        <v>2.26419567465478</v>
+        <v>1.988219054731218</v>
       </c>
       <c r="E46" t="n">
-        <v>18.20322371625999</v>
+        <v>16.81746331577775</v>
       </c>
       <c r="F46" t="n">
-        <v>2.600460530894285</v>
+        <v>2.402494759396821</v>
       </c>
       <c r="G46" t="n">
-        <v>75.2390696104987</v>
+        <v>68.71342660855498</v>
       </c>
       <c r="H46" t="n">
-        <v>3.761953480524935</v>
+        <v>3.43567133042775</v>
       </c>
       <c r="I46" t="n">
-        <v>57.19927504464677</v>
+        <v>49.5974934707095</v>
       </c>
       <c r="J46" t="n">
-        <v>2.859963752232339</v>
+        <v>2.479874673535475</v>
       </c>
       <c r="K46" t="n">
-        <v>20.4269775070971</v>
+        <v>19.47693570332645</v>
       </c>
       <c r="L46" t="n">
-        <v>3.404496251182849</v>
+        <v>3.246155950554408</v>
       </c>
       <c r="M46" t="n">
-        <v>59.2815762250976</v>
+        <v>56.11369696199703</v>
       </c>
       <c r="N46" t="n">
-        <v>3.7050985140686</v>
+        <v>3.507106060124814</v>
       </c>
       <c r="O46" t="n">
-        <v>33.12298370426505</v>
+        <v>31.08616764538882</v>
       </c>
       <c r="P46" t="n">
-        <v>3.011180336751369</v>
+        <v>2.826015240489894</v>
       </c>
       <c r="Q46" t="n">
-        <v>41.19703688986682</v>
+        <v>37.66794190111399</v>
       </c>
       <c r="R46" t="n">
-        <v>3.086764077187022</v>
+        <v>2.84079100989434</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -7145,52 +7145,52 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>48.93257614211252</v>
+        <v>47.27069741888845</v>
       </c>
       <c r="D47" t="n">
-        <v>4.077714678509377</v>
+        <v>3.93922478490737</v>
       </c>
       <c r="E47" t="n">
-        <v>48.31554305463533</v>
+        <v>49.87206335493059</v>
       </c>
       <c r="F47" t="n">
-        <v>4.392322095875939</v>
+        <v>4.533823941357326</v>
       </c>
       <c r="G47" t="n">
-        <v>101.1090734876826</v>
+        <v>96.40047065424385</v>
       </c>
       <c r="H47" t="n">
-        <v>4.595866976712843</v>
+        <v>4.381839575192902</v>
       </c>
       <c r="I47" t="n">
-        <v>119.6905262558625</v>
+        <v>119.3921707734072</v>
       </c>
       <c r="J47" t="n">
-        <v>4.787621050234498</v>
+        <v>4.77568683093629</v>
       </c>
       <c r="K47" t="n">
-        <v>33.92754418959369</v>
+        <v>33.04604763332888</v>
       </c>
       <c r="L47" t="n">
-        <v>4.846792027084812</v>
+        <v>4.720863947618413</v>
       </c>
       <c r="M47" t="n">
-        <v>80.41943530621268</v>
+        <v>80.41898487769481</v>
       </c>
       <c r="N47" t="n">
-        <v>4.467746405900704</v>
+        <v>4.467721382094155</v>
       </c>
       <c r="O47" t="n">
-        <v>54.23952838195214</v>
+        <v>48.68747835289184</v>
       </c>
       <c r="P47" t="n">
-        <v>4.172271413996318</v>
+        <v>3.745190642530142</v>
       </c>
       <c r="Q47" t="n">
-        <v>69.51917525972162</v>
+        <v>67.86970186648367</v>
       </c>
       <c r="R47" t="n">
-        <v>4.477190664044928</v>
+        <v>4.366335872090943</v>
       </c>
       <c r="S47" t="n">
         <v>4</v>
@@ -7229,28 +7229,28 @@
         <v>0.3157894736842105</v>
       </c>
       <c r="AE47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG47" t="n">
         <v>13</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="AI47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ47" t="n">
         <v>1</v>
       </c>
-      <c r="AJ47" t="n">
-        <v>2</v>
-      </c>
       <c r="AK47" t="n">
         <v>4</v>
       </c>
       <c r="AL47" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AM47" t="n">
         <v>3</v>
@@ -7265,16 +7265,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AR47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AS47" t="n">
         <v>4</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48">
@@ -7289,64 +7289,64 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>69.83159801967807</v>
+        <v>62.71480866701692</v>
       </c>
       <c r="D48" t="n">
-        <v>4.655439867978539</v>
+        <v>4.180987244467794</v>
       </c>
       <c r="E48" t="n">
-        <v>51.24633881468863</v>
+        <v>50.40637424785836</v>
       </c>
       <c r="F48" t="n">
-        <v>5.124633881468863</v>
+        <v>5.040637424785837</v>
       </c>
       <c r="G48" t="n">
-        <v>102.8577550414389</v>
+        <v>97.75862999959654</v>
       </c>
       <c r="H48" t="n">
-        <v>4.897988335306616</v>
+        <v>4.655172857123644</v>
       </c>
       <c r="I48" t="n">
-        <v>113.3981318556643</v>
+        <v>98.91536801132835</v>
       </c>
       <c r="J48" t="n">
-        <v>4.724922160652676</v>
+        <v>4.12147366713868</v>
       </c>
       <c r="K48" t="n">
-        <v>40.00118348530709</v>
+        <v>37.48841526801259</v>
       </c>
       <c r="L48" t="n">
-        <v>5.000147935663386</v>
+        <v>4.686051908501573</v>
       </c>
       <c r="M48" t="n">
-        <v>81.20173064408692</v>
+        <v>76.61315166517029</v>
       </c>
       <c r="N48" t="n">
-        <v>4.776572390828643</v>
+        <v>4.506655980304135</v>
       </c>
       <c r="O48" t="n">
-        <v>60.82700613328942</v>
+        <v>55.84848363891203</v>
       </c>
       <c r="P48" t="n">
-        <v>4.344786152377816</v>
+        <v>3.98917740277943</v>
       </c>
       <c r="Q48" t="n">
-        <v>74.19482057059334</v>
+        <v>68.53503307112787</v>
       </c>
       <c r="R48" t="n">
-        <v>4.789212960610934</v>
+        <v>4.454308069300156</v>
       </c>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U48" t="n">
         <v>6</v>
       </c>
       <c r="V48" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
@@ -7373,28 +7373,28 @@
         <v>0.125</v>
       </c>
       <c r="AE48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG48" t="n">
         <v>9</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="AI48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK48" t="n">
         <v>5</v>
       </c>
       <c r="AL48" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM48" t="n">
         <v>2</v>
@@ -7409,16 +7409,16 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AQ48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS48" t="n">
         <v>6</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="49">
@@ -7433,112 +7433,112 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>46.81322828591294</v>
+        <v>44.72606714637078</v>
       </c>
       <c r="D49" t="n">
-        <v>4.255748025992085</v>
+        <v>4.066006104215526</v>
       </c>
       <c r="E49" t="n">
-        <v>60.21886391518265</v>
+        <v>58.31716456983701</v>
       </c>
       <c r="F49" t="n">
-        <v>5.018238659598554</v>
+        <v>4.859763714153084</v>
       </c>
       <c r="G49" t="n">
-        <v>109.4328692616219</v>
+        <v>103.1884193868769</v>
       </c>
       <c r="H49" t="n">
-        <v>4.757950837461823</v>
+        <v>4.486453016820734</v>
       </c>
       <c r="I49" t="n">
-        <v>109.3669006430692</v>
+        <v>102.733070964148</v>
       </c>
       <c r="J49" t="n">
-        <v>4.971222756503144</v>
+        <v>4.669685043824911</v>
       </c>
       <c r="K49" t="n">
-        <v>36.00624582978384</v>
+        <v>33.83687112963994</v>
       </c>
       <c r="L49" t="n">
-        <v>5.143749404254835</v>
+        <v>4.833838732805706</v>
       </c>
       <c r="M49" t="n">
-        <v>84.57125195242104</v>
+        <v>81.19394428672518</v>
       </c>
       <c r="N49" t="n">
-        <v>4.974779526613003</v>
+        <v>4.776114369807364</v>
       </c>
       <c r="O49" t="n">
-        <v>61.55259828025068</v>
+        <v>54.77294782381732</v>
       </c>
       <c r="P49" t="n">
-        <v>4.103506552016711</v>
+        <v>3.651529854921155</v>
       </c>
       <c r="Q49" t="n">
-        <v>72.56599402403461</v>
+        <v>68.3954979010593</v>
       </c>
       <c r="R49" t="n">
-        <v>4.746456537491451</v>
+        <v>4.477627262364068</v>
       </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U49" t="n">
         <v>3</v>
       </c>
       <c r="V49" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y49" t="n">
         <v>7</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AA49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC49" t="n">
         <v>13</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AE49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG49" t="n">
         <v>6</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="AI49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK49" t="n">
         <v>3</v>
       </c>
       <c r="AL49" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM49" t="n">
         <v>3</v>
@@ -7553,16 +7553,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS49" t="n">
         <v>7</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="50">
@@ -7577,64 +7577,64 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>52.42366160819</v>
+        <v>52.31315398710161</v>
       </c>
       <c r="D50" t="n">
-        <v>4.368638467349166</v>
+        <v>4.359429498925134</v>
       </c>
       <c r="E50" t="n">
-        <v>57.96616534952229</v>
+        <v>58.68807453651205</v>
       </c>
       <c r="F50" t="n">
-        <v>4.140440382108736</v>
+        <v>4.192005324036575</v>
       </c>
       <c r="G50" t="n">
-        <v>112.2866905473413</v>
+        <v>112.8496747108033</v>
       </c>
       <c r="H50" t="n">
-        <v>4.882030023797446</v>
+        <v>4.906507596121882</v>
       </c>
       <c r="I50" t="n">
-        <v>116.207950724576</v>
+        <v>116.9160055061593</v>
       </c>
       <c r="J50" t="n">
-        <v>4.64831802898304</v>
+        <v>4.676640220246369</v>
       </c>
       <c r="K50" t="n">
-        <v>39.18775546931157</v>
+        <v>38.88903318201567</v>
       </c>
       <c r="L50" t="n">
-        <v>3.918775546931156</v>
+        <v>3.888903318201566</v>
       </c>
       <c r="M50" t="n">
-        <v>55.00665585157338</v>
+        <v>55.42983290969456</v>
       </c>
       <c r="N50" t="n">
-        <v>3.929046846540956</v>
+        <v>3.959273779263897</v>
       </c>
       <c r="O50" t="n">
-        <v>60.66430958316494</v>
+        <v>60.42559440396635</v>
       </c>
       <c r="P50" t="n">
-        <v>4.333164970226068</v>
+        <v>4.316113885997597</v>
       </c>
       <c r="Q50" t="n">
-        <v>70.53474130481135</v>
+        <v>70.78733846232183</v>
       </c>
       <c r="R50" t="n">
-        <v>4.317202037990938</v>
+        <v>4.32841051754186</v>
       </c>
       <c r="S50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U50" t="n">
         <v>4</v>
       </c>
       <c r="V50" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="W50" t="n">
         <v>4</v>
@@ -7661,28 +7661,28 @@
         <v>0.3125</v>
       </c>
       <c r="AE50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF50" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG50" t="n">
         <v>12</v>
       </c>
       <c r="AH50" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="AI50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ50" t="n">
         <v>1</v>
       </c>
-      <c r="AJ50" t="n">
-        <v>2</v>
-      </c>
       <c r="AK50" t="n">
         <v>7</v>
       </c>
       <c r="AL50" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AM50" t="n">
         <v>6</v>
@@ -7697,16 +7697,16 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="AQ50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS50" t="n">
         <v>7</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="51">
@@ -7721,64 +7721,64 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>55.4919202979188</v>
+        <v>53.05645525398543</v>
       </c>
       <c r="D51" t="n">
-        <v>4.26860925368606</v>
+        <v>4.08126578876811</v>
       </c>
       <c r="E51" t="n">
-        <v>47.03521117567333</v>
+        <v>46.10353281427624</v>
       </c>
       <c r="F51" t="n">
-        <v>4.275928288697576</v>
+        <v>4.191230255843294</v>
       </c>
       <c r="G51" t="n">
-        <v>112.4045076602949</v>
+        <v>112.3832557386132</v>
       </c>
       <c r="H51" t="n">
-        <v>4.683521152512287</v>
+        <v>4.682635655775551</v>
       </c>
       <c r="I51" t="n">
-        <v>114.4424231091701</v>
+        <v>113.0646485225699</v>
       </c>
       <c r="J51" t="n">
-        <v>4.577696924366801</v>
+        <v>4.522585940902795</v>
       </c>
       <c r="K51" t="n">
-        <v>27.77448140203826</v>
+        <v>26.81274881475734</v>
       </c>
       <c r="L51" t="n">
-        <v>4.629080233673044</v>
+        <v>4.468791469126224</v>
       </c>
       <c r="M51" t="n">
-        <v>46.82059185995504</v>
+        <v>47.12040419905762</v>
       </c>
       <c r="N51" t="n">
-        <v>3.901715988329587</v>
+        <v>3.926700349921469</v>
       </c>
       <c r="O51" t="n">
-        <v>76.31216608544167</v>
+        <v>74.65876881204893</v>
       </c>
       <c r="P51" t="n">
-        <v>4.488950946202451</v>
+        <v>4.391692283061701</v>
       </c>
       <c r="Q51" t="n">
-        <v>68.61161451292743</v>
+        <v>67.59997345075838</v>
       </c>
       <c r="R51" t="n">
-        <v>4.403643255352543</v>
+        <v>4.323557391914163</v>
       </c>
       <c r="S51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U51" t="n">
         <v>4</v>
       </c>
       <c r="V51" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="W51" t="n">
         <v>3</v>
@@ -7805,28 +7805,28 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="AE51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF51" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG51" t="n">
         <v>13</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="AI51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK51" t="n">
         <v>3</v>
       </c>
       <c r="AL51" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM51" t="n">
         <v>4</v>
@@ -7841,16 +7841,16 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="AQ51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS51" t="n">
         <v>10</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="52">
@@ -7865,64 +7865,64 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>67.13511302102906</v>
+        <v>65.97902677184116</v>
       </c>
       <c r="D52" t="n">
-        <v>4.475674201401937</v>
+        <v>4.39860178478941</v>
       </c>
       <c r="E52" t="n">
-        <v>68.63333693040644</v>
+        <v>69.25423328233784</v>
       </c>
       <c r="F52" t="n">
-        <v>4.902381209314746</v>
+        <v>4.946730948738416</v>
       </c>
       <c r="G52" t="n">
-        <v>103.9445694912711</v>
+        <v>105.2364474532898</v>
       </c>
       <c r="H52" t="n">
-        <v>4.949741404346243</v>
+        <v>5.011259402537612</v>
       </c>
       <c r="I52" t="n">
-        <v>109.9514858396901</v>
+        <v>110.0286926432562</v>
       </c>
       <c r="J52" t="n">
-        <v>4.78049938433435</v>
+        <v>4.783856201880702</v>
       </c>
       <c r="K52" t="n">
-        <v>23.21532565373023</v>
+        <v>22.12117176063075</v>
       </c>
       <c r="L52" t="n">
-        <v>4.643065130746044</v>
+        <v>4.42423435212615</v>
       </c>
       <c r="M52" t="n">
-        <v>79.67265647146409</v>
+        <v>81.71573755180826</v>
       </c>
       <c r="N52" t="n">
-        <v>4.426258692859116</v>
+        <v>4.539763197322681</v>
       </c>
       <c r="O52" t="n">
-        <v>80.0706674880667</v>
+        <v>79.00792011744304</v>
       </c>
       <c r="P52" t="n">
-        <v>4.710039264003923</v>
+        <v>4.647524712790767</v>
       </c>
       <c r="Q52" t="n">
-        <v>76.0890221279511</v>
+        <v>76.19188994008672</v>
       </c>
       <c r="R52" t="n">
-        <v>4.698237041000908</v>
+        <v>4.678852942883677</v>
       </c>
       <c r="S52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U52" t="n">
         <v>7</v>
       </c>
       <c r="V52" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="W52" t="n">
         <v>1</v>
@@ -7949,28 +7949,28 @@
         <v>0.2307692307692308</v>
       </c>
       <c r="AE52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG52" t="n">
         <v>10</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="AI52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK52" t="n">
         <v>2</v>
       </c>
       <c r="AL52" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AM52" t="n">
         <v>3</v>
@@ -7985,16 +7985,16 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="AQ52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS52" t="n">
         <v>10</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="53">
@@ -8009,64 +8009,64 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>46.93183040131886</v>
+        <v>45.67083339605507</v>
       </c>
       <c r="D53" t="n">
-        <v>3.910985866776572</v>
+        <v>3.805902783004589</v>
       </c>
       <c r="E53" t="n">
-        <v>49.14637455119577</v>
+        <v>50.33476771219663</v>
       </c>
       <c r="F53" t="n">
-        <v>4.467852231926888</v>
+        <v>4.575887973836058</v>
       </c>
       <c r="G53" t="n">
-        <v>115.1298750615565</v>
+        <v>116.8206744864493</v>
       </c>
       <c r="H53" t="n">
-        <v>4.797078127564854</v>
+        <v>4.867528103602054</v>
       </c>
       <c r="I53" t="n">
-        <v>120.8805929195676</v>
+        <v>122.6080946596585</v>
       </c>
       <c r="J53" t="n">
-        <v>4.835223716782702</v>
+        <v>4.904323786386341</v>
       </c>
       <c r="K53" t="n">
-        <v>19.16340835214029</v>
+        <v>17.78830829140712</v>
       </c>
       <c r="L53" t="n">
-        <v>4.790852088035072</v>
+        <v>4.44707707285178</v>
       </c>
       <c r="M53" t="n">
-        <v>65.17633644993624</v>
+        <v>66.71233346551406</v>
       </c>
       <c r="N53" t="n">
-        <v>4.655452603566875</v>
+        <v>4.765166676108148</v>
       </c>
       <c r="O53" t="n">
-        <v>45.87870930066107</v>
+        <v>44.72228691969852</v>
       </c>
       <c r="P53" t="n">
-        <v>3.823225775055089</v>
+        <v>3.72685724330821</v>
       </c>
       <c r="Q53" t="n">
-        <v>66.0438752909109</v>
+        <v>66.37961413299703</v>
       </c>
       <c r="R53" t="n">
-        <v>4.468667201386864</v>
+        <v>4.441820519871025</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U53" t="n">
         <v>2</v>
       </c>
       <c r="V53" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="W53" t="n">
         <v>3</v>
@@ -8093,28 +8093,28 @@
         <v>0.2777777777777778</v>
       </c>
       <c r="AE53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF53" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG53" t="n">
         <v>13</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AI53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK53" t="n">
         <v>1</v>
       </c>
       <c r="AL53" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AM53" t="n">
         <v>2</v>
@@ -8129,16 +8129,16 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="AQ53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS53" t="n">
         <v>2</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="54">
@@ -8153,64 +8153,64 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>44.25793771395087</v>
+        <v>43.43652527830438</v>
       </c>
       <c r="D54" t="n">
-        <v>4.023448883086443</v>
+        <v>3.948775025300397</v>
       </c>
       <c r="E54" t="n">
-        <v>46.89971788285105</v>
+        <v>49.98017210909219</v>
       </c>
       <c r="F54" t="n">
-        <v>4.263610716622822</v>
+        <v>4.543652009917472</v>
       </c>
       <c r="G54" t="n">
-        <v>100.142500859974</v>
+        <v>105.2204762557825</v>
       </c>
       <c r="H54" t="n">
-        <v>4.551931857271547</v>
+        <v>4.782748920717386</v>
       </c>
       <c r="I54" t="n">
-        <v>116.7222922917568</v>
+        <v>121.5866199953883</v>
       </c>
       <c r="J54" t="n">
-        <v>4.668891691670271</v>
+        <v>4.863464799815532</v>
       </c>
       <c r="K54" t="n">
-        <v>31.68701926290293</v>
+        <v>31.22362481992237</v>
       </c>
       <c r="L54" t="n">
-        <v>4.526717037557562</v>
+        <v>4.460517831417482</v>
       </c>
       <c r="M54" t="n">
-        <v>76.61719087691549</v>
+        <v>79.42933667108936</v>
       </c>
       <c r="N54" t="n">
-        <v>4.256510604273083</v>
+        <v>4.412740926171631</v>
       </c>
       <c r="O54" t="n">
-        <v>50.09427795076752</v>
+        <v>51.32806447534441</v>
       </c>
       <c r="P54" t="n">
-        <v>4.17452316256396</v>
+        <v>4.2773387062787</v>
       </c>
       <c r="Q54" t="n">
-        <v>66.63156240558838</v>
+        <v>68.88640280070335</v>
       </c>
       <c r="R54" t="n">
-        <v>4.352233421863669</v>
+        <v>4.469891174231228</v>
       </c>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U54" t="n">
         <v>1</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="W54" t="n">
         <v>1</v>
@@ -8237,28 +8237,28 @@
         <v>0.4117647058823529</v>
       </c>
       <c r="AE54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG54" t="n">
         <v>12</v>
       </c>
       <c r="AH54" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="AI54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ54" t="n">
         <v>1</v>
       </c>
-      <c r="AJ54" t="n">
-        <v>2</v>
-      </c>
       <c r="AK54" t="n">
         <v>4</v>
       </c>
       <c r="AL54" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AM54" t="n">
         <v>2</v>
@@ -8273,16 +8273,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AQ54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS54" t="n">
         <v>4</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="55">
@@ -8297,52 +8297,52 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>49.77346209554538</v>
+        <v>50.12949315854912</v>
       </c>
       <c r="D55" t="n">
-        <v>4.147788507962115</v>
+        <v>4.177457763212426</v>
       </c>
       <c r="E55" t="n">
-        <v>47.02428963419936</v>
+        <v>51.56996620718509</v>
       </c>
       <c r="F55" t="n">
-        <v>4.274935421290851</v>
+        <v>4.688178746107735</v>
       </c>
       <c r="G55" t="n">
-        <v>104.6532719555024</v>
+        <v>106.3210471633123</v>
       </c>
       <c r="H55" t="n">
-        <v>4.75696690706829</v>
+        <v>4.832774871059649</v>
       </c>
       <c r="I55" t="n">
-        <v>116.4103411553036</v>
+        <v>123.0588155161217</v>
       </c>
       <c r="J55" t="n">
-        <v>4.656413646212147</v>
+        <v>4.922352620644868</v>
       </c>
       <c r="K55" t="n">
-        <v>30.80997778356696</v>
+        <v>31.54621266890015</v>
       </c>
       <c r="L55" t="n">
-        <v>4.401425397652423</v>
+        <v>4.506601809842879</v>
       </c>
       <c r="M55" t="n">
-        <v>74.46838720787198</v>
+        <v>77.92485766116373</v>
       </c>
       <c r="N55" t="n">
-        <v>4.137132622659556</v>
+        <v>4.329158758953541</v>
       </c>
       <c r="O55" t="n">
-        <v>56.69561362740438</v>
+        <v>53.92114069695196</v>
       </c>
       <c r="P55" t="n">
-        <v>4.361201048261875</v>
+        <v>4.147780053611688</v>
       </c>
       <c r="Q55" t="n">
-        <v>68.54790620848487</v>
+        <v>70.63879043888343</v>
       </c>
       <c r="R55" t="n">
-        <v>4.390837650158179</v>
+        <v>4.514900660490398</v>
       </c>
       <c r="S55" t="n">
         <v>4</v>
@@ -8381,28 +8381,28 @@
         <v>0.4</v>
       </c>
       <c r="AE55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG55" t="n">
         <v>13</v>
       </c>
       <c r="AH55" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AI55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ55" t="n">
         <v>1</v>
       </c>
-      <c r="AJ55" t="n">
-        <v>2</v>
-      </c>
       <c r="AK55" t="n">
         <v>4</v>
       </c>
       <c r="AL55" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AM55" t="n">
         <v>3</v>
@@ -8417,16 +8417,16 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="AQ55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AR55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AS55" t="n">
         <v>4</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="56">
@@ -8441,64 +8441,64 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>53.59366046093785</v>
+        <v>53.90214487108801</v>
       </c>
       <c r="D56" t="n">
-        <v>3.828118604352704</v>
+        <v>3.850153205077715</v>
       </c>
       <c r="E56" t="n">
-        <v>32.82775680085621</v>
+        <v>33.37842843704902</v>
       </c>
       <c r="F56" t="n">
-        <v>3.647528533428467</v>
+        <v>3.708714270783224</v>
       </c>
       <c r="G56" t="n">
-        <v>93.13228028759598</v>
+        <v>93.97762967363572</v>
       </c>
       <c r="H56" t="n">
-        <v>4.434870489885522</v>
+        <v>4.475125222554081</v>
       </c>
       <c r="I56" t="n">
-        <v>116.5010127573304</v>
+        <v>117.9592849073652</v>
       </c>
       <c r="J56" t="n">
-        <v>4.480808182974247</v>
+        <v>4.536895573360201</v>
       </c>
       <c r="K56" t="n">
-        <v>16.98238408699772</v>
+        <v>17.00493292133911</v>
       </c>
       <c r="L56" t="n">
-        <v>3.396476817399543</v>
+        <v>3.400986584267822</v>
       </c>
       <c r="M56" t="n">
-        <v>43.8343625707078</v>
+        <v>44.69380003781915</v>
       </c>
       <c r="N56" t="n">
-        <v>3.371874043900601</v>
+        <v>3.43798461829378</v>
       </c>
       <c r="O56" t="n">
-        <v>51.45308506568013</v>
+        <v>52.1771131833472</v>
       </c>
       <c r="P56" t="n">
-        <v>3.430205671045342</v>
+        <v>3.478474212223147</v>
       </c>
       <c r="Q56" t="n">
-        <v>58.3320774328723</v>
+        <v>59.01333343309192</v>
       </c>
       <c r="R56" t="n">
-        <v>3.798554620426632</v>
+        <v>3.841190526651424</v>
       </c>
       <c r="S56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U56" t="n">
         <v>4</v>
       </c>
       <c r="V56" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="W56" t="n">
         <v>5</v>
@@ -8525,28 +8525,28 @@
         <v>0.4375</v>
       </c>
       <c r="AE56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG56" t="n">
         <v>12</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AI56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK56" t="n">
         <v>1</v>
       </c>
       <c r="AL56" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AM56" t="n">
         <v>7</v>
@@ -8561,16 +8561,16 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="AQ56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS56" t="n">
         <v>6</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="57">
@@ -8585,64 +8585,64 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>36.97524319059779</v>
+        <v>36.57876230975042</v>
       </c>
       <c r="D57" t="n">
-        <v>3.361385744599799</v>
+        <v>3.325342028159129</v>
       </c>
       <c r="E57" t="n">
-        <v>42.22031261367587</v>
+        <v>42.45258697830873</v>
       </c>
       <c r="F57" t="n">
-        <v>3.838210237606897</v>
+        <v>3.859326088937157</v>
       </c>
       <c r="G57" t="n">
-        <v>121.4075119862456</v>
+        <v>122.0631646225084</v>
       </c>
       <c r="H57" t="n">
-        <v>4.856300479449822</v>
+        <v>4.882526584900335</v>
       </c>
       <c r="I57" t="n">
-        <v>103.8307220393176</v>
+        <v>103.4326069477476</v>
       </c>
       <c r="J57" t="n">
-        <v>4.153228881572702</v>
+        <v>4.137304277909904</v>
       </c>
       <c r="K57" t="n">
-        <v>23.41998403067695</v>
+        <v>22.95607314740758</v>
       </c>
       <c r="L57" t="n">
-        <v>3.903330671779493</v>
+        <v>3.826012191234596</v>
       </c>
       <c r="M57" t="n">
-        <v>67.59249019608343</v>
+        <v>67.35380624515641</v>
       </c>
       <c r="N57" t="n">
-        <v>4.224530637255214</v>
+        <v>4.209612890322275</v>
       </c>
       <c r="O57" t="n">
-        <v>56.40914181900714</v>
+        <v>56.29562551096998</v>
       </c>
       <c r="P57" t="n">
-        <v>3.760609454600475</v>
+        <v>3.753041700731331</v>
       </c>
       <c r="Q57" t="n">
-        <v>64.55077226794347</v>
+        <v>64.44751796597843</v>
       </c>
       <c r="R57" t="n">
-        <v>4.013942300980629</v>
+        <v>3.999023680313532</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U57" t="n">
         <v>3</v>
       </c>
       <c r="V57" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="W57" t="n">
         <v>4</v>
@@ -8669,28 +8669,28 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="AE57" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG57" t="n">
         <v>11</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="AI57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK57" t="n">
         <v>3</v>
       </c>
       <c r="AL57" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM57" t="n">
         <v>3</v>
@@ -8705,16 +8705,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS57" t="n">
         <v>5</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="58">
@@ -8729,64 +8729,64 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>58.32394103070843</v>
+        <v>59.52100497100304</v>
       </c>
       <c r="D58" t="n">
-        <v>4.165995787907744</v>
+        <v>4.251500355071645</v>
       </c>
       <c r="E58" t="n">
-        <v>54.85862160602601</v>
+        <v>56.99297733321636</v>
       </c>
       <c r="F58" t="n">
-        <v>4.219893969694309</v>
+        <v>4.384075179478181</v>
       </c>
       <c r="G58" t="n">
-        <v>93.20960330054875</v>
+        <v>96.6493051752569</v>
       </c>
       <c r="H58" t="n">
-        <v>4.660480165027437</v>
+        <v>4.832465258762845</v>
       </c>
       <c r="I58" t="n">
-        <v>106.1456604517442</v>
+        <v>108.9963567520673</v>
       </c>
       <c r="J58" t="n">
-        <v>4.422735852156007</v>
+        <v>4.541514864669471</v>
       </c>
       <c r="K58" t="n">
-        <v>41.38555706299362</v>
+        <v>41.78839845449559</v>
       </c>
       <c r="L58" t="n">
-        <v>4.138555706299361</v>
+        <v>4.178839845449559</v>
       </c>
       <c r="M58" t="n">
-        <v>52.72492571765132</v>
+        <v>54.35308728479988</v>
       </c>
       <c r="N58" t="n">
-        <v>3.766066122689379</v>
+        <v>3.882363377485706</v>
       </c>
       <c r="O58" t="n">
-        <v>51.54064755646717</v>
+        <v>52.94166789969911</v>
       </c>
       <c r="P58" t="n">
-        <v>3.964665196651321</v>
+        <v>4.072435992284547</v>
       </c>
       <c r="Q58" t="n">
-        <v>65.45556524659135</v>
+        <v>67.32039969579117</v>
       </c>
       <c r="R58" t="n">
-        <v>4.191198971489365</v>
+        <v>4.306170696171708</v>
       </c>
       <c r="S58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U58" t="n">
         <v>6</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="W58" t="n">
         <v>3</v>
@@ -8813,28 +8813,28 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="AE58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG58" t="n">
         <v>8</v>
       </c>
       <c r="AH58" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="AI58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK58" t="n">
         <v>6</v>
       </c>
       <c r="AL58" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AM58" t="n">
         <v>6</v>
@@ -8849,16 +8849,16 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="AQ58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS58" t="n">
         <v>5</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="59">
@@ -8873,76 +8873,76 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>51.37851361441772</v>
+        <v>47.06368574435371</v>
       </c>
       <c r="D59" t="n">
-        <v>3.95219335495521</v>
+        <v>3.620283518796439</v>
       </c>
       <c r="E59" t="n">
-        <v>44.15714042659437</v>
+        <v>42.3207773089037</v>
       </c>
       <c r="F59" t="n">
-        <v>4.415714042659436</v>
+        <v>4.23207773089037</v>
       </c>
       <c r="G59" t="n">
-        <v>104.3404817344365</v>
+        <v>106.5775158160059</v>
       </c>
       <c r="H59" t="n">
-        <v>4.968594368306498</v>
+        <v>5.075119800762185</v>
       </c>
       <c r="I59" t="n">
-        <v>112.2594122462649</v>
+        <v>110.9605899549331</v>
       </c>
       <c r="J59" t="n">
-        <v>4.677475510261035</v>
+        <v>4.623357914788879</v>
       </c>
       <c r="K59" t="n">
-        <v>31.94936360225809</v>
+        <v>31.81611846263491</v>
       </c>
       <c r="L59" t="n">
-        <v>4.564194800322584</v>
+        <v>4.545159780376415</v>
       </c>
       <c r="M59" t="n">
-        <v>55.15214287421799</v>
+        <v>55.45053496015032</v>
       </c>
       <c r="N59" t="n">
-        <v>4.242472528785999</v>
+        <v>4.26542576616541</v>
       </c>
       <c r="O59" t="n">
-        <v>71.06057229767647</v>
+        <v>67.47100893458611</v>
       </c>
       <c r="P59" t="n">
-        <v>4.44128576860478</v>
+        <v>4.216938058411631</v>
       </c>
       <c r="Q59" t="n">
-        <v>67.18537525655228</v>
+        <v>65.95146159736682</v>
       </c>
       <c r="R59" t="n">
-        <v>4.465990053413649</v>
+        <v>4.368337510027333</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T59" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U59" t="n">
         <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y59" t="n">
         <v>4</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="AA59" t="n">
         <v>1</v>
@@ -8957,28 +8957,28 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="AE59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG59" t="n">
         <v>9</v>
       </c>
       <c r="AH59" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AI59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK59" t="n">
         <v>4</v>
       </c>
       <c r="AL59" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM59" t="n">
         <v>3</v>
@@ -8993,16 +8993,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS59" t="n">
         <v>8</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="60">
@@ -9017,52 +9017,52 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>53.90032618946775</v>
+        <v>54.39488301742652</v>
       </c>
       <c r="D60" t="n">
-        <v>3.850023299247696</v>
+        <v>3.885348786959038</v>
       </c>
       <c r="E60" t="n">
-        <v>66.64210815788017</v>
+        <v>68.37005366805163</v>
       </c>
       <c r="F60" t="n">
-        <v>4.760150582705728</v>
+        <v>4.883575262003688</v>
       </c>
       <c r="G60" t="n">
-        <v>89.34099266915359</v>
+        <v>92.63923057326812</v>
       </c>
       <c r="H60" t="n">
-        <v>4.963388481619645</v>
+        <v>5.146623920737118</v>
       </c>
       <c r="I60" t="n">
-        <v>100.0899860499924</v>
+        <v>102.2592713471836</v>
       </c>
       <c r="J60" t="n">
-        <v>4.351738523912713</v>
+        <v>4.446055275964505</v>
       </c>
       <c r="K60" t="n">
-        <v>26.30240636726727</v>
+        <v>25.20935102804128</v>
       </c>
       <c r="L60" t="n">
-        <v>4.383734394544544</v>
+        <v>4.201558504673548</v>
       </c>
       <c r="M60" t="n">
-        <v>78.32873076509746</v>
+        <v>82.25277863535531</v>
       </c>
       <c r="N60" t="n">
-        <v>4.351596153616526</v>
+        <v>4.569598813075296</v>
       </c>
       <c r="O60" t="n">
-        <v>72.92008302400744</v>
+        <v>72.9072665860826</v>
       </c>
       <c r="P60" t="n">
-        <v>4.557505189000465</v>
+        <v>4.556704161630162</v>
       </c>
       <c r="Q60" t="n">
-        <v>69.64637617469515</v>
+        <v>71.14754783648701</v>
       </c>
       <c r="R60" t="n">
-        <v>4.459733803521045</v>
+        <v>4.527066389291908</v>
       </c>
       <c r="S60" t="n">
         <v>6</v>
@@ -9101,28 +9101,28 @@
         <v>0</v>
       </c>
       <c r="AE60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG60" t="n">
         <v>8</v>
       </c>
       <c r="AH60" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="AI60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK60" t="n">
         <v>3</v>
       </c>
       <c r="AL60" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AM60" t="n">
         <v>3</v>
@@ -9137,16 +9137,16 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="AQ60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS60" t="n">
         <v>8</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="61">
@@ -9161,64 +9161,64 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>62.9864921994854</v>
+        <v>62.22587712962292</v>
       </c>
       <c r="D61" t="n">
-        <v>4.199099479965693</v>
+        <v>4.148391808641528</v>
       </c>
       <c r="E61" t="n">
-        <v>45.64183855439722</v>
+        <v>47.47632184222412</v>
       </c>
       <c r="F61" t="n">
-        <v>4.564183855439722</v>
+        <v>4.747632184222412</v>
       </c>
       <c r="G61" t="n">
-        <v>97.17710449275602</v>
+        <v>98.2547299247193</v>
       </c>
       <c r="H61" t="n">
-        <v>4.627481166321715</v>
+        <v>4.678796663081871</v>
       </c>
       <c r="I61" t="n">
-        <v>114.4560306570507</v>
+        <v>117.6547302329837</v>
       </c>
       <c r="J61" t="n">
-        <v>4.769001277377114</v>
+        <v>4.902280426374319</v>
       </c>
       <c r="K61" t="n">
-        <v>24.02612209148012</v>
+        <v>23.50658468819</v>
       </c>
       <c r="L61" t="n">
-        <v>4.805224418296024</v>
+        <v>4.701316937638</v>
       </c>
       <c r="M61" t="n">
-        <v>60.07646664163219</v>
+        <v>63.15121838185119</v>
       </c>
       <c r="N61" t="n">
-        <v>4.621266664740938</v>
+        <v>4.857786029373169</v>
       </c>
       <c r="O61" t="n">
-        <v>55.12364261530357</v>
+        <v>55.16139714657223</v>
       </c>
       <c r="P61" t="n">
-        <v>3.937403043950255</v>
+        <v>3.940099796183731</v>
       </c>
       <c r="Q61" t="n">
-        <v>65.64109960744361</v>
+        <v>66.77583704945192</v>
       </c>
       <c r="R61" t="n">
-        <v>4.503379986584495</v>
+        <v>4.568043406502147</v>
       </c>
       <c r="S61" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U61" t="n">
         <v>6</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W61" t="n">
         <v>2</v>
@@ -9245,28 +9245,28 @@
         <v>0.1052631578947368</v>
       </c>
       <c r="AE61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF61" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG61" t="n">
         <v>9</v>
       </c>
       <c r="AH61" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AI61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK61" t="n">
         <v>2</v>
       </c>
       <c r="AL61" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AM61" t="n">
         <v>3</v>
@@ -9281,16 +9281,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS61" t="n">
         <v>6</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="62">
@@ -9305,64 +9305,64 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>63.43449572417973</v>
+        <v>62.90608475824381</v>
       </c>
       <c r="D62" t="n">
-        <v>4.531035408869981</v>
+        <v>4.493291768445987</v>
       </c>
       <c r="E62" t="n">
-        <v>50.67467876216703</v>
+        <v>52.9210530443516</v>
       </c>
       <c r="F62" t="n">
-        <v>5.067467876216703</v>
+        <v>5.29210530443516</v>
       </c>
       <c r="G62" t="n">
-        <v>111.6782222383287</v>
+        <v>108.6776010232243</v>
       </c>
       <c r="H62" t="n">
-        <v>5.076282829014939</v>
+        <v>4.939890955601105</v>
       </c>
       <c r="I62" t="n">
-        <v>98.21678609457068</v>
+        <v>99.26155308907755</v>
       </c>
       <c r="J62" t="n">
-        <v>4.27029504759003</v>
+        <v>4.31571969952511</v>
       </c>
       <c r="K62" t="n">
-        <v>41.39639307532774</v>
+        <v>38.91032332034188</v>
       </c>
       <c r="L62" t="n">
-        <v>5.174549134415969</v>
+        <v>4.863790415042735</v>
       </c>
       <c r="M62" t="n">
-        <v>74.94359939027875</v>
+        <v>75.84805644207471</v>
       </c>
       <c r="N62" t="n">
-        <v>4.408447022957573</v>
+        <v>4.461650378945571</v>
       </c>
       <c r="O62" t="n">
-        <v>63.66288811990692</v>
+        <v>67.7699956725386</v>
       </c>
       <c r="P62" t="n">
-        <v>4.547349151421923</v>
+        <v>4.8407139766099</v>
       </c>
       <c r="Q62" t="n">
-        <v>72.00100905782278</v>
+        <v>72.3278096214075</v>
       </c>
       <c r="R62" t="n">
-        <v>4.725060924355303</v>
+        <v>4.743880356943652</v>
       </c>
       <c r="S62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U62" t="n">
         <v>5</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
@@ -9389,40 +9389,40 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="AE62" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AF62" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG62" t="n">
         <v>6</v>
       </c>
       <c r="AH62" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="AI62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK62" t="n">
         <v>5</v>
       </c>
       <c r="AL62" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AM62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO62" t="n">
         <v>8</v>
       </c>
       <c r="AP62" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="AQ62" t="n">
         <v>3</v>
@@ -9449,64 +9449,64 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>71.08264991600714</v>
+        <v>68.85491343078186</v>
       </c>
       <c r="D63" t="n">
-        <v>4.73884332773381</v>
+        <v>4.590327562052124</v>
       </c>
       <c r="E63" t="n">
-        <v>50.79847328437047</v>
+        <v>52.87254025697364</v>
       </c>
       <c r="F63" t="n">
-        <v>5.079847328437046</v>
+        <v>5.287254025697363</v>
       </c>
       <c r="G63" t="n">
-        <v>103.2355055170692</v>
+        <v>105.5977736845211</v>
       </c>
       <c r="H63" t="n">
-        <v>4.915976453193772</v>
+        <v>5.028465413548622</v>
       </c>
       <c r="I63" t="n">
-        <v>113.962432917783</v>
+        <v>106.6118188414966</v>
       </c>
       <c r="J63" t="n">
-        <v>4.748434704907627</v>
+        <v>4.442159118395691</v>
       </c>
       <c r="K63" t="n">
-        <v>39.59551925027789</v>
+        <v>39.45959181096769</v>
       </c>
       <c r="L63" t="n">
-        <v>4.949439906284737</v>
+        <v>4.932448976370963</v>
       </c>
       <c r="M63" t="n">
-        <v>78.53702164057239</v>
+        <v>76.77406935079516</v>
       </c>
       <c r="N63" t="n">
-        <v>4.619824802386611</v>
+        <v>4.516121726517364</v>
       </c>
       <c r="O63" t="n">
-        <v>61.89096676660091</v>
+        <v>61.52482286716113</v>
       </c>
       <c r="P63" t="n">
-        <v>4.420783340471494</v>
+        <v>4.394630204797224</v>
       </c>
       <c r="Q63" t="n">
-        <v>74.15750989895443</v>
+        <v>73.09936146324245</v>
       </c>
       <c r="R63" t="n">
-        <v>4.781878551916442</v>
+        <v>4.741629575339907</v>
       </c>
       <c r="S63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U63" t="n">
         <v>6</v>
       </c>
       <c r="V63" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
@@ -9533,28 +9533,28 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="AE63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG63" t="n">
         <v>9</v>
       </c>
       <c r="AH63" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="AI63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK63" t="n">
         <v>5</v>
       </c>
       <c r="AL63" t="n">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AM63" t="n">
         <v>2</v>
@@ -9569,16 +9569,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AQ63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS63" t="n">
         <v>6</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="64">
@@ -9593,64 +9593,64 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>50.64268956311775</v>
+        <v>52.71164814265715</v>
       </c>
       <c r="D64" t="n">
-        <v>3.617334968794125</v>
+        <v>3.76511772447551</v>
       </c>
       <c r="E64" t="n">
-        <v>30.27293900155759</v>
+        <v>31.07614112303732</v>
       </c>
       <c r="F64" t="n">
-        <v>3.363659889061954</v>
+        <v>3.452904569226369</v>
       </c>
       <c r="G64" t="n">
-        <v>81.87839899962275</v>
+        <v>83.94626072374508</v>
       </c>
       <c r="H64" t="n">
-        <v>3.898971380934417</v>
+        <v>3.997440986845004</v>
       </c>
       <c r="I64" t="n">
-        <v>106.69330674551</v>
+        <v>110.9473815478311</v>
       </c>
       <c r="J64" t="n">
-        <v>4.103588720981151</v>
+        <v>4.267206982608889</v>
       </c>
       <c r="K64" t="n">
-        <v>15.88469079942879</v>
+        <v>16.21094427719719</v>
       </c>
       <c r="L64" t="n">
-        <v>3.176938159885758</v>
+        <v>3.242188855439438</v>
       </c>
       <c r="M64" t="n">
-        <v>40.72730731594748</v>
+        <v>42.10173410632881</v>
       </c>
       <c r="N64" t="n">
-        <v>3.132869793534422</v>
+        <v>3.238594931256062</v>
       </c>
       <c r="O64" t="n">
-        <v>47.03711796684881</v>
+        <v>48.94234294628752</v>
       </c>
       <c r="P64" t="n">
-        <v>3.135807864456587</v>
+        <v>3.262822863085834</v>
       </c>
       <c r="Q64" t="n">
-        <v>53.30520719886188</v>
+        <v>55.13377898101203</v>
       </c>
       <c r="R64" t="n">
-        <v>3.489881539664059</v>
+        <v>3.603753844705301</v>
       </c>
       <c r="S64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U64" t="n">
         <v>4</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W64" t="n">
         <v>5</v>
@@ -9677,28 +9677,28 @@
         <v>0.35</v>
       </c>
       <c r="AE64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG64" t="n">
         <v>12</v>
       </c>
       <c r="AH64" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="AI64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK64" t="n">
         <v>1</v>
       </c>
       <c r="AL64" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AM64" t="n">
         <v>7</v>
@@ -9713,16 +9713,16 @@
         <v>0.5833333333333334</v>
       </c>
       <c r="AQ64" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS64" t="n">
         <v>6</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="65">
@@ -9737,112 +9737,112 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>60.47848867269803</v>
+        <v>61.34454951405102</v>
       </c>
       <c r="D65" t="n">
-        <v>4.31989204804986</v>
+        <v>4.381753536717929</v>
       </c>
       <c r="E65" t="n">
-        <v>42.58877374258955</v>
+        <v>44.78966958919263</v>
       </c>
       <c r="F65" t="n">
-        <v>3.871706703871777</v>
+        <v>4.071788144472057</v>
       </c>
       <c r="G65" t="n">
-        <v>88.56109988455702</v>
+        <v>87.72641536275201</v>
       </c>
       <c r="H65" t="n">
-        <v>4.217195232597953</v>
+        <v>4.177448350607238</v>
       </c>
       <c r="I65" t="n">
-        <v>119.4302967360685</v>
+        <v>120.2599626106554</v>
       </c>
       <c r="J65" t="n">
-        <v>4.423344323558092</v>
+        <v>4.454072689283531</v>
       </c>
       <c r="K65" t="n">
-        <v>31.72182447744781</v>
+        <v>29.29277464050497</v>
       </c>
       <c r="L65" t="n">
-        <v>4.531689211063973</v>
+        <v>4.18468209150071</v>
       </c>
       <c r="M65" t="n">
-        <v>56.20021844186861</v>
+        <v>56.55022440819026</v>
       </c>
       <c r="N65" t="n">
-        <v>3.746681229457907</v>
+        <v>3.770014960546018</v>
       </c>
       <c r="O65" t="n">
-        <v>57.41292717330544</v>
+        <v>58.51729674911973</v>
       </c>
       <c r="P65" t="n">
-        <v>3.827528478220363</v>
+        <v>3.901153116607982</v>
       </c>
       <c r="Q65" t="n">
-        <v>65.199089875505</v>
+        <v>65.497270410638</v>
       </c>
       <c r="R65" t="n">
-        <v>4.134005318117133</v>
+        <v>4.134416127105067</v>
       </c>
       <c r="S65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U65" t="n">
         <v>7</v>
       </c>
       <c r="V65" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="W65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y65" t="n">
         <v>4</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AA65" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB65" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC65" t="n">
         <v>7</v>
       </c>
       <c r="AD65" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="AE65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF65" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG65" t="n">
         <v>13</v>
       </c>
       <c r="AH65" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="AI65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK65" t="n">
         <v>4</v>
       </c>
       <c r="AL65" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AM65" t="n">
         <v>5</v>
@@ -9881,64 +9881,64 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>39.19282209883246</v>
+        <v>40.16440148378197</v>
       </c>
       <c r="D66" t="n">
-        <v>3.562983827166587</v>
+        <v>3.651309225798361</v>
       </c>
       <c r="E66" t="n">
-        <v>60.77308542506233</v>
+        <v>61.94200942779727</v>
       </c>
       <c r="F66" t="n">
-        <v>4.051539028337489</v>
+        <v>4.129467295186485</v>
       </c>
       <c r="G66" t="n">
-        <v>90.7132486451255</v>
+        <v>92.42880805693547</v>
       </c>
       <c r="H66" t="n">
-        <v>4.123329483869341</v>
+        <v>4.20130945713343</v>
       </c>
       <c r="I66" t="n">
-        <v>87.61824534110762</v>
+        <v>88.89839777917862</v>
       </c>
       <c r="J66" t="n">
-        <v>3.982647515504892</v>
+        <v>4.040836262689937</v>
       </c>
       <c r="K66" t="n">
-        <v>35.09664448582058</v>
+        <v>35.15409190790365</v>
       </c>
       <c r="L66" t="n">
-        <v>3.899627165091176</v>
+        <v>3.906010211989295</v>
       </c>
       <c r="M66" t="n">
-        <v>58.72804400973298</v>
+        <v>60.2210090141843</v>
       </c>
       <c r="N66" t="n">
-        <v>3.915202933982198</v>
+        <v>4.014733934278953</v>
       </c>
       <c r="O66" t="n">
-        <v>45.21338233170313</v>
+        <v>46.15191441409463</v>
       </c>
       <c r="P66" t="n">
-        <v>3.477952487054087</v>
+        <v>3.550147262622664</v>
       </c>
       <c r="Q66" t="n">
-        <v>59.61935319105494</v>
+        <v>60.70866172626798</v>
       </c>
       <c r="R66" t="n">
-        <v>3.85904034871511</v>
+        <v>3.927687664242732</v>
       </c>
       <c r="S66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U66" t="n">
         <v>5</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="W66" t="n">
         <v>2</v>
@@ -9965,28 +9965,28 @@
         <v>0.3125</v>
       </c>
       <c r="AE66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF66" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG66" t="n">
         <v>5</v>
       </c>
       <c r="AH66" t="n">
-        <v>0.2631578947368421</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="AI66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK66" t="n">
         <v>4</v>
       </c>
       <c r="AL66" t="n">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="AM66" t="n">
         <v>4</v>
@@ -10001,16 +10001,16 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="AQ66" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS66" t="n">
         <v>4</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="67">
@@ -10025,64 +10025,64 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>49.33030864486098</v>
+        <v>46.70619545760926</v>
       </c>
       <c r="D67" t="n">
-        <v>4.110859053738415</v>
+        <v>3.892182954800772</v>
       </c>
       <c r="E67" t="n">
-        <v>54.76257178484641</v>
+        <v>56.51810624731839</v>
       </c>
       <c r="F67" t="n">
-        <v>4.563547648737202</v>
+        <v>4.709842187276533</v>
       </c>
       <c r="G67" t="n">
-        <v>101.2191473755843</v>
+        <v>101.556084339989</v>
       </c>
       <c r="H67" t="n">
-        <v>4.600870335253832</v>
+        <v>4.616185651817684</v>
       </c>
       <c r="I67" t="n">
-        <v>96.13507938493814</v>
+        <v>95.88623452727714</v>
       </c>
       <c r="J67" t="n">
-        <v>4.369776335679007</v>
+        <v>4.358465205785324</v>
       </c>
       <c r="K67" t="n">
-        <v>22.01137911140428</v>
+        <v>20.75581126031562</v>
       </c>
       <c r="L67" t="n">
-        <v>4.402275822280856</v>
+        <v>4.151162252063124</v>
       </c>
       <c r="M67" t="n">
-        <v>64.45380833210628</v>
+        <v>64.07533824769227</v>
       </c>
       <c r="N67" t="n">
-        <v>4.603843452293305</v>
+        <v>4.576809874835162</v>
       </c>
       <c r="O67" t="n">
-        <v>69.80576531953167</v>
+        <v>70.19993346389455</v>
       </c>
       <c r="P67" t="n">
-        <v>4.362860332470729</v>
+        <v>4.387495841493409</v>
       </c>
       <c r="Q67" t="n">
-        <v>65.38829427903886</v>
+        <v>65.0996719348709</v>
       </c>
       <c r="R67" t="n">
-        <v>4.430576140064764</v>
+        <v>4.384591995438858</v>
       </c>
       <c r="S67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U67" t="n">
         <v>5</v>
       </c>
       <c r="V67" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="W67" t="n">
         <v>2</v>
@@ -10109,28 +10109,28 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="AE67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF67" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG67" t="n">
         <v>6</v>
       </c>
       <c r="AH67" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="AI67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK67" t="n">
         <v>0</v>
       </c>
       <c r="AL67" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AM67" t="n">
         <v>3</v>
@@ -10145,16 +10145,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS67" t="n">
         <v>7</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="68">
@@ -10169,64 +10169,64 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>60.07460069242125</v>
+        <v>59.67274865718942</v>
       </c>
       <c r="D68" t="n">
-        <v>4.291042906601517</v>
+        <v>4.262339189799245</v>
       </c>
       <c r="E68" t="n">
-        <v>64.55286280266847</v>
+        <v>64.03227365369796</v>
       </c>
       <c r="F68" t="n">
-        <v>4.610918771619176</v>
+        <v>4.573733832406997</v>
       </c>
       <c r="G68" t="n">
-        <v>89.80867957827213</v>
+        <v>87.73131739837159</v>
       </c>
       <c r="H68" t="n">
-        <v>4.726772609382745</v>
+        <v>4.617437757809031</v>
       </c>
       <c r="I68" t="n">
-        <v>99.53559791157454</v>
+        <v>97.49391069419792</v>
       </c>
       <c r="J68" t="n">
-        <v>4.524345359617024</v>
+        <v>4.431541395190815</v>
       </c>
       <c r="K68" t="n">
-        <v>29.63475041077059</v>
+        <v>28.02041890795228</v>
       </c>
       <c r="L68" t="n">
-        <v>4.939125068461765</v>
+        <v>4.670069817992047</v>
       </c>
       <c r="M68" t="n">
-        <v>73.07545459087279</v>
+        <v>70.67713390431153</v>
       </c>
       <c r="N68" t="n">
-        <v>4.298556152404283</v>
+        <v>4.157478464959502</v>
       </c>
       <c r="O68" t="n">
-        <v>68.43119868443529</v>
+        <v>66.53992514888942</v>
       </c>
       <c r="P68" t="n">
-        <v>4.276949917777205</v>
+        <v>4.158745321805589</v>
       </c>
       <c r="Q68" t="n">
-        <v>69.30187781014502</v>
+        <v>67.73824690923001</v>
       </c>
       <c r="R68" t="n">
-        <v>4.523958683694817</v>
+        <v>4.410192254280461</v>
       </c>
       <c r="S68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U68" t="n">
         <v>8</v>
       </c>
       <c r="V68" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="W68" t="n">
         <v>1</v>
@@ -10241,16 +10241,16 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="AA68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC68" t="n">
         <v>7</v>
       </c>
       <c r="AD68" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="AE68" t="n">
         <v>3</v>
@@ -10265,16 +10265,16 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="AI68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK68" t="n">
         <v>3</v>
       </c>
       <c r="AL68" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AM68" t="n">
         <v>3</v>
@@ -10289,16 +10289,16 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="AQ68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS68" t="n">
         <v>7</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="69">
@@ -10313,64 +10313,64 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>35.83533919339682</v>
+        <v>35.36656286259836</v>
       </c>
       <c r="D69" t="n">
-        <v>3.25775810849062</v>
+        <v>3.215142078418033</v>
       </c>
       <c r="E69" t="n">
-        <v>44.33493799452545</v>
+        <v>45.90452193608998</v>
       </c>
       <c r="F69" t="n">
-        <v>4.030448908593224</v>
+        <v>4.173138357826362</v>
       </c>
       <c r="G69" t="n">
-        <v>103.545594684536</v>
+        <v>102.0631280607646</v>
       </c>
       <c r="H69" t="n">
-        <v>4.314399778522334</v>
+        <v>4.252630335865192</v>
       </c>
       <c r="I69" t="n">
-        <v>97.21216075005151</v>
+        <v>98.41463541938788</v>
       </c>
       <c r="J69" t="n">
-        <v>4.226615684784849</v>
+        <v>4.2788971921473</v>
       </c>
       <c r="K69" t="n">
-        <v>21.84431152671015</v>
+        <v>19.52754148830761</v>
       </c>
       <c r="L69" t="n">
-        <v>4.368862305342031</v>
+        <v>3.905508297661522</v>
       </c>
       <c r="M69" t="n">
-        <v>49.99693816190057</v>
+        <v>50.159266882952</v>
       </c>
       <c r="N69" t="n">
-        <v>4.166411513491715</v>
+        <v>4.179938906912667</v>
       </c>
       <c r="O69" t="n">
-        <v>49.39938102526029</v>
+        <v>49.7807879371615</v>
       </c>
       <c r="P69" t="n">
-        <v>3.528527216090021</v>
+        <v>3.555770566940108</v>
       </c>
       <c r="Q69" t="n">
-        <v>57.45266619091155</v>
+        <v>57.31663494103741</v>
       </c>
       <c r="R69" t="n">
-        <v>3.984717645044971</v>
+        <v>3.937289390824455</v>
       </c>
       <c r="S69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U69" t="n">
         <v>3</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="W69" t="n">
         <v>2</v>
@@ -10397,28 +10397,28 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="AE69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF69" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG69" t="n">
         <v>8</v>
       </c>
       <c r="AH69" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="AI69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK69" t="n">
         <v>2</v>
       </c>
       <c r="AL69" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AM69" t="n">
         <v>3</v>
@@ -10433,16 +10433,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AQ69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS69" t="n">
         <v>5</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="70">
@@ -10457,64 +10457,64 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>31.20653017283444</v>
+        <v>30.25546793049254</v>
       </c>
       <c r="D70" t="n">
-        <v>3.120653017283444</v>
+        <v>3.025546793049254</v>
       </c>
       <c r="E70" t="n">
-        <v>58.08249784995446</v>
+        <v>61.06509955390536</v>
       </c>
       <c r="F70" t="n">
-        <v>4.840208154162872</v>
+        <v>5.08875829615878</v>
       </c>
       <c r="G70" t="n">
-        <v>86.15007186461349</v>
+        <v>88.10056071055263</v>
       </c>
       <c r="H70" t="n">
-        <v>3.915912357482432</v>
+        <v>4.004570941388756</v>
       </c>
       <c r="I70" t="n">
-        <v>104.5422479662722</v>
+        <v>106.8523492057947</v>
       </c>
       <c r="J70" t="n">
-        <v>4.545315128968357</v>
+        <v>4.645754313295421</v>
       </c>
       <c r="K70" t="n">
-        <v>30.87833749859984</v>
+        <v>30.46911027399402</v>
       </c>
       <c r="L70" t="n">
-        <v>4.411191071228549</v>
+        <v>4.352730039142003</v>
       </c>
       <c r="M70" t="n">
-        <v>78.7591591534447</v>
+        <v>79.57972371448211</v>
       </c>
       <c r="N70" t="n">
-        <v>4.632891714908512</v>
+        <v>4.681160218498948</v>
       </c>
       <c r="O70" t="n">
-        <v>52.69063154397025</v>
+        <v>53.44090347717177</v>
       </c>
       <c r="P70" t="n">
-        <v>3.763616538855018</v>
+        <v>3.817207391226555</v>
       </c>
       <c r="Q70" t="n">
-        <v>63.18706800709849</v>
+        <v>64.25188783805616</v>
       </c>
       <c r="R70" t="n">
-        <v>4.175683997555597</v>
+        <v>4.23081828467996</v>
       </c>
       <c r="S70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U70" t="n">
         <v>2</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="W70" t="n">
         <v>0</v>
@@ -10541,28 +10541,28 @@
         <v>0.3529411764705883</v>
       </c>
       <c r="AE70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG70" t="n">
         <v>7</v>
       </c>
       <c r="AH70" t="n">
-        <v>0.1578947368421053</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="AI70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK70" t="n">
         <v>3</v>
       </c>
       <c r="AL70" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="AM70" t="n">
         <v>2</v>
@@ -10577,16 +10577,16 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="AQ70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS70" t="n">
         <v>7</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="71">
@@ -10601,112 +10601,112 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>40.38358172974655</v>
+        <v>39.2621163513962</v>
       </c>
       <c r="D71" t="n">
-        <v>3.671234702704231</v>
+        <v>3.569283304672382</v>
       </c>
       <c r="E71" t="n">
-        <v>61.48310322304719</v>
+        <v>62.98982626405363</v>
       </c>
       <c r="F71" t="n">
-        <v>5.123591935253933</v>
+        <v>5.249152188671135</v>
       </c>
       <c r="G71" t="n">
-        <v>109.6727465784755</v>
+        <v>109.3135294554691</v>
       </c>
       <c r="H71" t="n">
-        <v>4.768380286020674</v>
+        <v>4.752762150237786</v>
       </c>
       <c r="I71" t="n">
-        <v>109.7242133389761</v>
+        <v>107.3342895640148</v>
       </c>
       <c r="J71" t="n">
-        <v>4.987464242680731</v>
+        <v>4.878831343818857</v>
       </c>
       <c r="K71" t="n">
-        <v>34.16992852590109</v>
+        <v>33.22236355845739</v>
       </c>
       <c r="L71" t="n">
-        <v>4.881418360843012</v>
+        <v>4.746051936922484</v>
       </c>
       <c r="M71" t="n">
-        <v>77.68051110427295</v>
+        <v>76.15640780277178</v>
       </c>
       <c r="N71" t="n">
-        <v>4.569441829663115</v>
+        <v>4.479788694280693</v>
       </c>
       <c r="O71" t="n">
-        <v>63.80764719585291</v>
+        <v>60.85447053306528</v>
       </c>
       <c r="P71" t="n">
-        <v>4.253843146390194</v>
+        <v>4.056964702204352</v>
       </c>
       <c r="Q71" t="n">
-        <v>70.98881881375318</v>
+        <v>69.87614336131831</v>
       </c>
       <c r="R71" t="n">
-        <v>4.607910643365127</v>
+        <v>4.53326204582967</v>
       </c>
       <c r="S71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U71" t="n">
         <v>3</v>
       </c>
       <c r="V71" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="W71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y71" t="n">
         <v>7</v>
       </c>
       <c r="Z71" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="AA71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC71" t="n">
         <v>13</v>
       </c>
       <c r="AD71" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="AE71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG71" t="n">
         <v>6</v>
       </c>
       <c r="AH71" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL71" t="n">
         <v>0.1666666666666667</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ71" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK71" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL71" t="n">
-        <v>0</v>
       </c>
       <c r="AM71" t="n">
         <v>3</v>
@@ -10721,16 +10721,16 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="AQ71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AR71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS71" t="n">
         <v>7</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72">
@@ -10745,64 +10745,64 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>30.77402466545614</v>
+        <v>30.58761198737766</v>
       </c>
       <c r="D72" t="n">
-        <v>2.797638605950558</v>
+        <v>2.780691998852515</v>
       </c>
       <c r="E72" t="n">
-        <v>41.64998437653289</v>
+        <v>42.43845281356983</v>
       </c>
       <c r="F72" t="n">
-        <v>3.786362216048445</v>
+        <v>3.858041164869985</v>
       </c>
       <c r="G72" t="n">
-        <v>112.9773486802677</v>
+        <v>115.1678576329638</v>
       </c>
       <c r="H72" t="n">
-        <v>4.519093947210709</v>
+        <v>4.606714305318553</v>
       </c>
       <c r="I72" t="n">
-        <v>100.8686630140618</v>
+        <v>102.084646390338</v>
       </c>
       <c r="J72" t="n">
-        <v>4.034746520562473</v>
+        <v>4.083385855613521</v>
       </c>
       <c r="K72" t="n">
-        <v>23.76304600069182</v>
+        <v>23.79284045384151</v>
       </c>
       <c r="L72" t="n">
-        <v>3.960507666781971</v>
+        <v>3.965473408973585</v>
       </c>
       <c r="M72" t="n">
-        <v>66.29150465270979</v>
+        <v>67.42087336476665</v>
       </c>
       <c r="N72" t="n">
-        <v>4.143219040794363</v>
+        <v>4.213804585297916</v>
       </c>
       <c r="O72" t="n">
-        <v>52.93467315428824</v>
+        <v>53.26083564727075</v>
       </c>
       <c r="P72" t="n">
-        <v>3.528978210285883</v>
+        <v>3.550722376484717</v>
       </c>
       <c r="Q72" t="n">
-        <v>61.32274922057263</v>
+        <v>62.10758832716117</v>
       </c>
       <c r="R72" t="n">
-        <v>3.824363743947772</v>
+        <v>3.86554767077297</v>
       </c>
       <c r="S72" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U72" t="n">
         <v>3</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="W72" t="n">
         <v>4</v>
@@ -10829,28 +10829,28 @@
         <v>0.2105263157894737</v>
       </c>
       <c r="AE72" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF72" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG72" t="n">
         <v>11</v>
       </c>
       <c r="AH72" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="AI72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK72" t="n">
         <v>3</v>
       </c>
       <c r="AL72" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AM72" t="n">
         <v>3</v>
@@ -10865,16 +10865,16 @@
         <v>0.25</v>
       </c>
       <c r="AQ72" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS72" t="n">
         <v>5</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="73">
@@ -10889,112 +10889,112 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>58.36829548049492</v>
+        <v>56.66487819175495</v>
       </c>
       <c r="D73" t="n">
-        <v>4.169163962892494</v>
+        <v>4.047491299411068</v>
       </c>
       <c r="E73" t="n">
-        <v>46.12610299714389</v>
+        <v>47.61557746376998</v>
       </c>
       <c r="F73" t="n">
-        <v>4.193282090649444</v>
+        <v>4.328688860342726</v>
       </c>
       <c r="G73" t="n">
-        <v>92.02855151080023</v>
+        <v>89.81307696320934</v>
       </c>
       <c r="H73" t="n">
-        <v>4.382311976704773</v>
+        <v>4.276813188724255</v>
       </c>
       <c r="I73" t="n">
-        <v>125.7553175606144</v>
+        <v>125.1682651111519</v>
       </c>
       <c r="J73" t="n">
-        <v>4.657604354096829</v>
+        <v>4.635861670783404</v>
       </c>
       <c r="K73" t="n">
-        <v>33.71218760771889</v>
+        <v>30.7240829234465</v>
       </c>
       <c r="L73" t="n">
-        <v>4.816026801102698</v>
+        <v>4.389154703349499</v>
       </c>
       <c r="M73" t="n">
-        <v>59.09773511872269</v>
+        <v>58.36659877723972</v>
       </c>
       <c r="N73" t="n">
-        <v>3.939849007914846</v>
+        <v>3.891106585149315</v>
       </c>
       <c r="O73" t="n">
-        <v>59.12929354564549</v>
+        <v>59.90190207120992</v>
       </c>
       <c r="P73" t="n">
-        <v>3.941952903043033</v>
+        <v>3.993460138080661</v>
       </c>
       <c r="Q73" t="n">
-        <v>67.7453548315915</v>
+        <v>66.89348307168318</v>
       </c>
       <c r="R73" t="n">
-        <v>4.300027299486302</v>
+        <v>4.223225206548704</v>
       </c>
       <c r="S73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U73" t="n">
         <v>7</v>
       </c>
       <c r="V73" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="W73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y73" t="n">
         <v>4</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="AA73" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB73" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC73" t="n">
         <v>7</v>
       </c>
       <c r="AD73" t="n">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="AE73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG73" t="n">
         <v>13</v>
       </c>
       <c r="AH73" t="n">
-        <v>0.04761904761904762</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="AI73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AJ73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AK73" t="n">
         <v>4</v>
       </c>
       <c r="AL73" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AM73" t="n">
         <v>5</v>
